--- a/PDS/test_output/Design_results.xlsx
+++ b/PDS/test_output/Design_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,36 +481,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>bdhA_del</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>ACGTCTCACATATGACTAGTgagacaactcccatgtgtgga</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACTCGCGGACAGGCCTTCACG</t>
+          <t>AGTTCGAACTTAAGAGATCTtttgaaaccaaaaagaatccgcac</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>gagacaactcccatgtgtggaggtttatgctggtcattgcgtcacttccagccttgttcctgtttttcggcatgatcagaatgcccgagagtccccgttggcttgtttctaaaggaagaaaagaagatgctttgcgtgtattgaaaaaaatcagggacgaaaaacgggcagcagctgagctgcaagaaattgaattcgctttcaaaaaagaagaccagcttgaaaaagcgacatttaaagatctttcagtcccatgggtgcgccgtattgtgtttattggattagggattgcgattgtacagcaaattacaggtgtgaattcgattatgtattatgggactgaaattctaagaaattccggtttccaaacggaagccgctttaatcggaaatattgcgaatggcgtgatttcggtattggcaacattcgtcggaatctggctgctgggaagagtggggcgccggccgatgctgatgacaggcttgatcggtacgacaacagcattattgctaatcgggatattctcacttgtacttgaaggatcaccggcacttccgtatgtagtcctgtcattaacggtcacatttcttgcttttcagcagggcgccatttcaccagtgacttggctgatgctatctgaaattttcccgcttcgccttcgcggactgggaatgggtgttacggtattctgtctgtggatggtgaattttgcagtcagtttcacgtttccgatattgctggcagctatcgggctgtccacaacgttctttatcttcgttggattaggaatttgctctgtcttgtttgtgaagaggtttttgccggaaacgaaagggctttcgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>gtgcctgcctatttagcagagatgtctcctgtggaaagcaggggacggatggtgacgcagaacgaattgatgattgtatcaggacagcttttggcctttgtttttaatgcgatccttggaacaacaatgggagacaactcccatgtgtggaggtttatgctggtcattgcgtcacttccagccttgttcctgtttttcggcatgatcagaatgcccgagagtccccgttggcttgtttctaaaggaagaaaagaagatgctttgcgtgtattgaaaaaaatcagggacgaaaaacgggcagcagctgagctgcaagaaattgaattcgctttcaaaaaagaagaccagcttgaaaaagcgacatttaaagatctttcagtcccatgggtgcgccgtattgtgtttattggattagggattgcgattgtacagcaaattacaggtgtgaattcgattatgtattatgggactgaaattctaagaaattccggtttccaaacggaagccgctttaatcggaaatattgcgaatggcgtgatttcggtattggcaacattcgtcggaatctggctgctgggaagagtggggcgccggccgatgctgatgacaggcttgatcggtacgacaacagcattattgctaatcgggatattctcacttgtacttgaaggatcaccggcacttccgtatgtagtcctgtcattaacggtcacatttcttgcttttcagcagggcgccatttcaccagtgacttggctgatgctatctgaaattttcccgcttcgccttcgcggactgggaatgggtgttacggtattctgtctgtggatggtgaattttgcagtcagtttcacgtttccgatattgctggcagctatcgggctgtccacaacgttctttatcttcgttggattaggaatttgctctgtcttgtttgtgaagaggtttttgccggaaacgaaagggctttcgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAGTGAGCCAGAACTCATCTTC</t>
+          <t>ACGTCTCACATATGACTAGTgagacaactcccatgtgtggaggtttatgctggtcattgcgtcacttccagccttgttcctgtttttcggcatgatcagaatgcccgagagtccccgttggcttgtttctaaaggaagaaaagaagatgctttgcgtgtattgaaaaaaatcagggacgaaaaacgggcagcagctgagctgcaagaaattgaattcgctttcaaaaaagaagaccagcttgaaaaagcgacatttaaagatctttcagtcccatgggtgcgccgtattgtgtttattggattagggattgcgattgtacagcaaattacaggtgtgaattcgattatgtattatgggactgaaattctaagaaattccggtttccaaacggaagccgctttaatcggaaatattgcgaatggcgtgatttcggtattggcaacattcgtcggaatctggctgctgggaagagtggggcgccggccgatgctgatgacaggcttgatcggtacgacaacagcattattgctaatcgggatattctcacttgtacttgaaggatcaccggcacttccgtatgtagtcctgtcattaacggtcacatttcttgcttttcagcagggcgccatttcaccagtgacttggctgatgctatctgaaattttcccgcttcgccttcgcggactgggaatgggtgttacggtattctgtctgtggatggtgaattttgcagtcagtttcacgtttccgatattgctggcagctatcgggctgtccacaacgttctttatcttcgttggattaggaatttgctctgtcttgtttgtgaagaggtttttgccggaaacgaaagggctttcgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaaAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1091</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3">
@@ -519,36 +519,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>acoA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>ACGTCTCACATATGACTAGTccgggctgttgaagaaaagc</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCGCGGACAGGCCTTCACG</t>
+          <t>AGTTCGAACTTAAGAGATCTtttgtgcgcctccttctatt</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>ccgggctgttgaagaaaagcatgaactgtagcacgtacatatgaggaaaagagtgggaacatgaaaaaacttgtgtttggcttgcttgccattgtgttattcggatgcggactatatatctatcatgtatggttcggtgatccattttcgaaaaatgctgcagaacagaagctagtgtcttatgtgaaacaaacctatcctaagaaagaaatcaagatcacgaatggggtatataacgctaaaacgtctgaatatgtatttgaagcaacctcccaatctcatcgctacccaatgtgtacgaagggatttctgcatcctaaagtaacgtgcgatggaattgaagaagcgtataccgaatcagtagcaaaacatgtaaatgaagaagcaacgaaggcaatcgaagcagatctgaaaaaagcggttcctcgatttataaaagctgatgctgctttgagtatcgaaaacggacagttcacgttagatacaaaatggaacaaaaagctggctgaaaaagcgcctatgagcatgacgattcagttagacgccagcgggttatcaaaaacagatgccgcaaagatggcggaaacggtcagaaaaacgcttaatgaaaagggatatacatactcaaacggcacgatagactgtatgcagaaggacggggacggcggtattggatatgtcaaatattcaattgattttctttcaaaagcagctattcagtcaaacgatgcagaggaactaggaagttaaaaagatttccaaggaaataaatacgtcgatcattgtcaaaggccgggtgatatccggtcttttttttgcatgctgtaaaacgagacaaatgaatcagtttgagacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaa</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>tcgaagagctagtcatgcttggcggaaaaaaatatcgaagcgttctaaacgccgtcatcggagaacaccagcatatcagctggccgctatcatcatacaaaggcataggctatatgctccaagcgctgaaccgggctgttgaagaaaagcatgaactgtagcacgtacatatgaggaaaagagtgggaacatgaaaaaacttgtgtttggcttgcttgccattgtgttattcggatgcggactatatatctatcatgtatggttcggtgatccattttcgaaaaatgctgcagaacagaagctagtgtcttatgtgaaacaaacctatcctaagaaagaaatcaagatcacgaatggggtatataacgctaaaacgtctgaatatgtatttgaagcaacctcccaatctcatcgctacccaatgtgtacgaagggatttctgcatcctaaagtaacgtgcgatggaattgaagaagcgtataccgaatcagtagcaaaacatgtaaatgaagaagcaacgaaggcaatcgaagcagatctgaaaaaagcggttcctcgatttataaaagctgatgctgctttgagtatcgaaaacggacagttcacgttagatacaaaatggaacaaaaagctggctgaaaaagcgcctatgagcatgacgattcagttagacgccagcgggttatcaaaaacagatgccgcaaagatggcggaaacggtcagaaaaacgcttaatgaaaagggatatacatactcaaacggcacgatagactgtatgcagaaggacggggacggcggtattggatatgtcaaatattcaattgattttctttcaaaagcagctattcagtcaaacgatgcagaggaactaggaagttaaaaagatttccaaggaaataaatacgtcgatcattgtcaaaggccgggtgatatccggtcttttttttgcatgctgtaaaacgagacaaatgaatcagtttgagacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTC</t>
+          <t>ACGTCTCACATATGACTAGTccgggctgttgaagaaaagcatgaactgtagcacgtacatatgaggaaaagagtgggaacatgaaaaaacttgtgtttggcttgcttgccattgtgttattcggatgcggactatatatctatcatgtatggttcggtgatccattttcgaaaaatgctgcagaacagaagctagtgtcttatgtgaaacaaacctatcctaagaaagaaatcaagatcacgaatggggtatataacgctaaaacgtctgaatatgtatttgaagcaacctcccaatctcatcgctacccaatgtgtacgaagggatttctgcatcctaaagtaacgtgcgatggaattgaagaagcgtataccgaatcagtagcaaaacatgtaaatgaagaagcaacgaaggcaatcgaagcagatctgaaaaaagcggttcctcgatttataaaagctgatgctgctttgagtatcgaaaacggacagttcacgttagatacaaaatggaacaaaaagctggctgaaaaagcgcctatgagcatgacgattcagttagacgccagcgggttatcaaaaacagatgccgcaaagatggcggaaacggtcagaaaaacgcttaatgaaaagggatatacatactcaaacggcacgatagactgtatgcagaaggacggggacggcggtattggatatgtcaaatattcaattgattttctttcaaaagcagctattcagtcaaacgatgcagaggaactaggaagttaaaaagatttccaaggaaataaatacgtcgatcattgtcaaaggccgggtgatatccggtcttttttttgcatgctgtaaaacgagacaaatgaatcagtttgagacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaaAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1090</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4">
@@ -557,36 +557,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pta_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>ACGTCTCACATATGACTAGTtcatttcagcagctgtgattga</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGCGCGCGGACAGGCCTTCACG</t>
+          <t>AGTTCGAACTTAAGAGATCTtaaaattgaagacaatggcagctct</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>tcatttcagcagctgtgattgataattgcttttcagcatcgtaataaaaatttctttattttttgtattctccatgagaggagaatgaatgtaagacagcttgcgctttaacgagaaattattaatatgcagaattgaaatttcgcggtggatcaaatccttacgcagcacgcttctggatagaaccgaaagtcccatgccgttaatcaccgcttcctttacaccttgattgctgctgatggtaaacattgatttcggccgaagtccatttgaactgagtacatgatcgagatattctctcgtcccggagcctttctctcttgtcacccacgcttcgttctgcaaatcgctgatcgaaatctctttccgcccggcgagcggatgctgatttggagcggcaatgcacatttcatcctccatgaacggttcaatttccagctcattctcgtttgtatgtccttcaatcagcccgatatcagcctgaagcatccgcacacgctcgctgacctcctctgtattgccaatcatgacatctagattcagctctggatacagcttttgcagctgggccaatagcggcggaagaatatactcaccgattgtaaagcttgcagctattttcaattcacccttcacatagtgatgatgcgcatagatttcagccttggcttgttcgtagagaaacaccatttgctttgctctttgatataaaatgtctcctgtcggcgttgtcgtaaagtgttttggcgacctgttcagaagagccgtttgaaattctttctcaagatttttgatatgcagactgacgctgggctgggagatcatcagcttttccgccgcttttgtgaagtttttttcttctaccaccgctataaacgttttcagcacgtcgtaatacaaaaaccccacccctgtcattaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaatttta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>catcaaataaagggccgagactggattggtcaatgactctccatttcggctgcatcagtaaatcaatcggttggtttgccatctatgtaaaaccctttcatgttaggcttattgaacgaaaactattatatcatttcagcagctgtgattgataattgcttttcagcatcgtaataaaaatttctttattttttgtattctccatgagaggagaatgaatgtaagacagcttgcgctttaacgagaaattattaatatgcagaattgaaatttcgcggtggatcaaatccttacgcagcacgcttctggatagaaccgaaagtcccatgccgttaatcaccgcttcctttacaccttgattgctgctgatggtaaacattgatttcggccgaagtccatttgaactgagtacatgatcgagatattctctcgtcccggagcctttctctcttgtcacccacgcttcgttctgcaaatcgctgatcgaaatctctttccgcccggcgagcggatgctgatttggagcggcaatgcacatttcatcctccatgaacggttcaatttccagctcattctcgtttgtatgtccttcaatcagcccgatatcagcctgaagcatccgcacacgctcgctgacctcctctgtattgccaatcatgacatctagattcagctctggatacagcttttgcagctgggccaatagcggcggaagaatatactcaccgattgtaaagcttgcagctattttcaattcacccttcacatagtgatgatgcgcatagatttcagccttggcttgttcgtagagaaacaccatttgctttgctctttgatataaaatgtctcctgtcggcgttgtcgtaaagtgttttggcgacctgttcagaagagccgtttgaaattctttctcaagatttttgatatgcagactgacgctgggctgggagatcatcagcttttccgccgcttttgtgaagtttttttcttctaccaccgctataaacgttttcagcacgtcgtaatacaaaaaccccacccctgtcattaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaatttta</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTGAGCCAGAACTCATCTTC</t>
+          <t>ACGTCTCACATATGACTAGTtcatttcagcagctgtgattgataattgcttttcagcatcgtaataaaaatttctttattttttgtattctccatgagaggagaatgaatgtaagacagcttgcgctttaacgagaaattattaatatgcagaattgaaatttcgcggtggatcaaatccttacgcagcacgcttctggatagaaccgaaagtcccatgccgttaatcaccgcttcctttacaccttgattgctgctgatggtaaacattgatttcggccgaagtccatttgaactgagtacatgatcgagatattctctcgtcccggagcctttctctcttgtcacccacgcttcgttctgcaaatcgctgatcgaaatctctttccgcccggcgagcggatgctgatttggagcggcaatgcacatttcatcctccatgaacggttcaatttccagctcattctcgtttgtatgtccttcaatcagcccgatatcagcctgaagcatccgcacacgctcgctgacctcctctgtattgccaatcatgacatctagattcagctctggatacagcttttgcagctgggccaatagcggcggaagaatatactcaccgattgtaaagcttgcagctattttcaattcacccttcacatagtgatgatgcgcatagatttcagccttggcttgttcgtagagaaacaccatttgctttgctctttgatataaaatgtctcctgtcggcgttgtcgtaaagtgttttggcgacctgttcagaagagccgtttgaaattctttctcaagatttttgatatgcagactgacgctgggctgggagatcatcagcttttccgccgcttttgtgaagtttttttcttctaccaccgctataaacgttttcagcacgtcgtaatacaaaaaccccacccctgtcattaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaattttaAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5">
@@ -595,36 +595,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>ldh_del</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>ACGTCTCACATATGACTAGTcaggctatcactgcggtcaa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACGGACGCGGACAGGCCTTCACG</t>
+          <t>AGTTCGAACTTAAGAGATCTtaatcatccttccagggtatgt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>caggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgatta</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>ctgggcggtgatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgatta</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCGTGAGCCAGAACTCATCTTC</t>
+          <t>ACGTCTCACATATGACTAGTcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgattaAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1093</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6">
@@ -633,36 +633,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>alsSD_P43_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>ACGTCTCACATATGACTAGTgctcacgctctgcaaattcc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCCGCGGACAGGCCTTCACG</t>
+          <t>tataaaaggaggaattcaaattgacaaaagcaacaaaagaaca</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>gctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>gtaacatgatcatcgactgcattacgcaactctttaacgatttcaagagggtgcgctctgtctgatttccaatctgcaggcacctgctcaccttcatgcatatattgttttaaatcagaaaggattttctgctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTC</t>
+          <t>ACGTCTCACATATGACTAGTgctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatttgaattcctccttttata</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1109</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7">
@@ -671,150 +671,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>amyE::P43_budC_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>ACGTCTCACATATGACTAGTactgccgttattcgctggat</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACTTTTACGTGCAACGGCCCCTTGCGCCAGCTTGGGGCCTGAGGCCCAAAAATACGCAGCTCCGCGGACAGGCCTTCACG</t>
+          <t>ccgcgctgtttcccatatgccaccgcccagcctaaacg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>actgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtg</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+          <t>agtcttcacatcggtttgaaaggaggaagcggaagaatgaagtaagagggatttttgactccgaagtaagtcttcaaaaaatcaaataaggagtgtcaagaatgtttgcaaaacgattcaaaacctctttactgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtg</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGTGAGCCAGAACTCATCTTC</t>
+          <t>ACGTCTCACATATGACTAGTactgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtggcatatgggaaacagcgcgg</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GAAGATGAGTTCTGGCTCACAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTC</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATCGCGGACAGGCCTTCACG</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CGTTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCA</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTC</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TGCTCAATTGGATCTGTCATAACGCGAGAAACGGCAAAAT</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CCTGGGTGCTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTT</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCA</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1089</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,40 +770,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>bdhA_del</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCC</t>
+          <t>cgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttga</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>GGGGATCCTCTAGAGTCGACgaaaccagcagctcatcacc</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGT</t>
+          <t>AGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttga</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTGATCCTCTAGAGTCGACCTG</t>
+          <t>AGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttgaaaaaaagaaactttaaagaaaaaagggtctcgcacactcttttttctttatatgagagtatcaatcgtttacatagctatgaatttggtttgaacaatacggtaatggttcgttcatattgaatgcgacaactactctatcaataattataactctaatactgctattataataggataatcttccatggtttattttagcagaggtaacttttttgactttgtaacattactgtaaggatattgaaataaaaaatagctggttgatcgtgtataatcttcctagatgttaacaaacagggggacgaaatgttgaagaaagtcattttagccgcttttatcttagtaggaagtactttgggagcttttagtttttcatcagatgccagtgcgaaacatgtgaacggaaatattacttggtataatggagtcgggaaaaaaggctcttcaggtaagaaacttggacattgggattgtgcgaccaaaatcggatttgatgttcctagaaacgggacaaaaatcagagcttatgcaaaagcgaagcctaaaaaggtgattacggtttataaaaatgatgttggcagaatgcctaatgcagtgctggatgttagccctaaagcgtttaaagcgcttggatacccattaagcaaaggtaaagtagcggggcattacagctattaatgtacatatataatctggaaagcaagaagtcacattcttgctttttctattggtggagataaaagatgaaaaaaagaatcatattattattagcagtgataatagcggcagctgccgcgggggttgcgttttatgttgcaaaggataaaggccatgagaaggctgctgatgtttcagtcaataccgaaagcggtgatgagctgctggtttcGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>GTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTC</t>
+          <t>acccgagtgcggattctttttggtttcaaaggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttgaaaaaaagaaactttaaagaaaaaagggtctcgcacactcttttttctttatatgagagtatcaatcgtttacatagctatgaatttggtttgaacaatacggtaatggttcgttcatattgaatgcgacaactactctatcaataattataactctaatactgctattataataggataatcttccatggtttattttagcagaggtaacttttttgactttgtaacattactgtaaggatattgaaataaaaaatagctggttgatcgtgtataatcttcctagatgttaacaaacagggggacgaaatgttgaagaaagtcattttagccgcttttatcttagtaggaagtactttgggagcttttagtttttcatcagatgccagtgcgaaacatgtgaacggaaatattacttggtataatggagtcgggaaaaaaggctcttcaggtaagaaacttggacattgggattgtgcgaccaaaatcggatttgatgttcctagaaacgggacaaaaatcagagcttatgcaaaagcgaagcctaaaaaggtgattacggtttataaaaatgatgttggcagaatgcctaatgcagtgctggatgttagccctaaagcgtttaaagcgcttggatacccattaagcaaaggtaaagtagcggggcattacagctattaatgtacatatataatctggaaagcaagaagtcacattcttgctttttctattggtggagataaaagatgaaaaaaagaatcatattattattagcagtgataatagcggcagctgccgcgggggttgcgttttatgttgcaaaggataaaggccatgagaaggctgctgatgtttcagtcaataccgaaagcggtgatgagctgctggtttcaattacagatacggatctgctgacaaagt</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>ggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttgaaaaaaagaaactttaaagaaaaaagggtctcgcacactcttttttctttatatgagagtatcaatcgtttacatagctatgaatttggtttgaacaatacggtaatggttcgttcatattgaatgcgacaactactctatcaataattataactctaatactgctattataataggataatcttccatggtttattttagcagaggtaacttttttgactttgtaacattactgtaaggatattgaaataaaaaatagctggttgatcgtgtataatcttcctagatgttaacaaacagggggacgaaatgttgaagaaagtcattttagccgcttttatcttagtaggaagtactttgggagcttttagtttttcatcagatgccagtgcgaaacatgtgaacggaaatattacttggtataatggagtcgggaaaaaaggctcttcaggtaagaaacttggacattgggattgtgcgaccaaaatcggatttgatgttcctagaaacgggacaaaaatcagagcttatgcaaaagcgaagcctaaaaaggtgattacggtttataaaaatgatgttggcagaatgcctaatgcagtgctggatgttagccctaaagcgtttaaagcgcttggatacccattaagcaaaggtaaagtagcggggcattacagctattaatgtacatatataatctggaaagcaagaagtcacattcttgctttttctattggtggagataaaagatgaaaaaaagaatcatattattattagcagtgataatagcggcagctgccgcgggggttgcgttttatgttgcaaaggataaaggccatgagaaggctgctgatgtttcagtcaataccgaaagcggtgatgagctgctggtttc</t>
         </is>
       </c>
     </row>
@@ -927,40 +813,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>acoA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTG</t>
+          <t>agacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcagg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>GGGGATCCTCTAGAGTCGACgccaagcaattcaagcgtga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGT</t>
+          <t>AGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagca</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTGATCCTCTAGAGTCGACCTG</t>
+          <t>AGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcaggatgatgaagcatggggcggtgtattaggggtcacaaagggactcgtacaggaattcgggcgtacaagagtgctggacactccgatttctgaggcaggctatatgggagcggctatggctgcggcatcaaccggtttgagaccgattgccgagctgatgtttaacgattttatcggcacgtgctttgatcaggtgatcaaccaaggggcgaaattccgttatatgttcggcggaaaagcgcaagtgccgattaccgtccgcaccacatacggagcagggttccgggccgctgcccagcattcacaatcgctgtatggccttttcacgagcatccctggactgaagacagttgttccatccaatccgtatgatgccaaaggtcttttgcttgcagcaatagaagataatgatccggtgtttttctttgaagacaaaacgtcctacaacatgaagggcgaggtgccggaagattattatacaattcccctcggaaaagcggatatcaaacgcgaaggcaatgatgttacgctctttgcagtcggcaagcaggtcaatactgcgcttgaagcggctgcacagctttcagagaggggcatcgaagccgaggtccttgatccccgcagtctgtctcctctggatgaggatgcgattttcacatcgttagaaaaaacaaaccggctgatcatcattgatgaagccaatccgcgatgcagcattgccacggatattgctgcgcttgtcgctgacaagggctttgatttgcttgatgcgccgattaaacggattacagcgccgcatacaccggttccgttttcaccagtgcttgaagatcaatatttgccgacaccagataaaattgtcagcgtcacgcttgaattgcttggcGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1056</v>
+        <v>1084</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>GGTGACGACTGTCGTGAAGGCCTGTCCGCGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAA</t>
+          <t>gtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcaggatgatgaagcatggggcggtgtattaggggtcacaaagggactcgtacaggaattcgggcgtacaagagtgctggacactccgatttctgaggcaggctatatgggagcggctatggctgcggcatcaaccggtttgagaccgattgccgagctgatgtttaacgattttatcggcacgtgctttgatcaggtgatcaaccaaggggcgaaattccgttatatgttcggcggaaaagcgcaagtgccgattaccgtccgcaccacatacggagcagggttccgggccgctgcccagcattcacaatcgctgtatggccttttcacgagcatccctggactgaagacagttgttccatccaatccgtatgatgccaaaggtcttttgcttgcagcaatagaagataatgatccggtgtttttctttgaagacaaaacgtcctacaacatgaagggcgaggtgccggaagattattatacaattcccctcggaaaagcggatatcaaacgcgaaggcaatgatgttacgctctttgcagtcggcaagcaggtcaatactgcgcttgaagcggctgcacagctttcagagaggggcatcgaagccgaggtccttgatccccgcagtctgtctcctctggatgaggatgcgattttcacatcgttagaaaaaacaaaccggctgatcatcattgatgaagccaatccgcgatgcagcattgccacggatattgctgcgcttgtcgctgacaagggctttgatttgcttgatgcgccgattaaacggattacagcgccgcatacaccggttccgttttcaccagtgcttgaagatcaatatttgccgacaccagataaaattgtcagcgtcacgcttgaattgcttggcgagccggcattgaattaaaggggggacacaaatggc</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>gagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcaggatgatgaagcatggggcggtgtattaggggtcacaaagggactcgtacaggaattcgggcgtacaagagtgctggacactccgatttctgaggcaggctatatgggagcggctatggctgcggcatcaaccggtttgagaccgattgccgagctgatgtttaacgattttatcggcacgtgctttgatcaggtgatcaaccaaggggcgaaattccgttatatgttcggcggaaaagcgcaagtgccgattaccgtccgcaccacatacggagcagggttccgggccgctgcccagcattcacaatcgctgtatggccttttcacgagcatccctggactgaagacagttgttccatccaatccgtatgatgccaaaggtcttttgcttgcagcaatagaagataatgatccggtgtttttctttgaagacaaaacgtcctacaacatgaagggcgaggtgccggaagattattatacaattcccctcggaaaagcggatatcaaacgcgaaggcaatgatgttacgctctttgcagtcggcaagcaggtcaatactgcgcttgaagcggctgcacagctttcagagaggggcatcgaagccgaggtccttgatccccgcagtctgtctcctctggatgaggatgcgattttcacatcgttagaaaaaacaaaccggctgatcatcattgatgaagccaatccgcgatgcagcattgccacggatattgctgcgcttgtcgctgacaagggctttgatttgcttgatgcgccgattaaacggattacagcgccgcatacaccggttccgttttcaccagtgcttgaagatcaatatttgccgacaccagataaaattgtcagcgtcacgcttgaattgcttggc</t>
         </is>
       </c>
     </row>
@@ -970,40 +856,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pta_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACC</t>
+          <t>attaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaattttaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>GGGGATCCTCTAGAGTCGACcaagcgaaaggtgattgccg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGG</t>
+          <t>AGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttaca</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTGATCCTCTAGAGTCGACCTG</t>
+          <t>AGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaagtgactcaatcttcccttataggttcttctattttgatggagttatacggaagggatgttcaaggtttctccacagtagaatcggataaactatggtatagtgaaggcaatcatgaaaagataatgggagtgaagataaatgagtgaacagcaaatgacgaatgaagcggcaaaaacgcttgacggctggtatgcgcttcatgatttccgcacaatggattgggcttcctggaagcttctgtccagtgatgagcgccaatctatcatacatgaattcaccgggttgcttgaaaaatggggcgtagcccaaaaagaaggaaaaggatcgcaaactctttacagcatcgtcggccaaaaagctgattttatgctgatgatccttcgtcctacaatggaagaattaaatcaaattgagcttgaattcaacaaatcaagacttgctgagttcaccattccggcatactcctacgtatcagtggtagagctgagcaactacttggcaagcggtgacggcgatccttatgaaaatccgcatgtgcgcgctcgcctttaccctgaactgccggaatctaaatatgtatgcttctatccaatggataaaagaagatctggcaacgacaactggtatatgctttcaatggaagaacgcagaaacttgatgagaagccacggtttaatcggccgcagctatgcgggcaaagtcaaacagatcatcaccggctctgtcggctttgacgattacgagtggggcgttacattatttagcgatgatgtccttcaattcaagaagctagtgtacgaaatgcgttttgacgaagtcagcgctcgctatggcgaatttggttcattctttgtcggcaatcacctttcgcttgGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1059</v>
+        <v>1075</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>GACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTT</t>
+          <t>ggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaagtgactcaatcttcccttataggttcttctattttgatggagttatacggaagggatgttcaaggtttctccacagtagaatcggataaactatggtatagtgaaggcaatcatgaaaagataatgggagtgaagataaatgagtgaacagcaaatgacgaatgaagcggcaaaaacgcttgacggctggtatgcgcttcatgatttccgcacaatggattgggcttcctggaagcttctgtccagtgatgagcgccaatctatcatacatgaattcaccgggttgcttgaaaaatggggcgtagcccaaaaagaaggaaaaggatcgcaaactctttacagcatcgtcggccaaaaagctgattttatgctgatgatccttcgtcctacaatggaagaattaaatcaaattgagcttgaattcaacaaatcaagacttgctgagttcaccattccggcatactcctacgtatcagtggtagagctgagcaactacttggcaagcggtgacggcgatccttatgaaaatccgcatgtgcgcgctcgcctttaccctgaactgccggaatctaaatatgtatgcttctatccaatggataaaagaagatctggcaacgacaactggtatatgctttcaatggaagaacgcagaaacttgatgagaagccacggtttaatcggccgcagctatgcgggcaaagtcaaacagatcatcaccggctctgtcggctttgacgattacgagtggggcgttacattatttagcgatgatgtccttcaattcaagaagctagtgtacgaaatgcgttttgacgaagtcagcgctcgctatggcgaatttggttcattctttgtcggcaatcacctttcgcttgatacacttcctcaattcttatatgtataatatcccctcccgccct</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>aataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaagtgactcaatcttcccttataggttcttctattttgatggagttatacggaagggatgttcaaggtttctccacagtagaatcggataaactatggtatagtgaaggcaatcatgaaaagataatgggagtgaagataaatgagtgaacagcaaatgacgaatgaagcggcaaaaacgcttgacggctggtatgcgcttcatgatttccgcacaatggattgggcttcctggaagcttctgtccagtgatgagcgccaatctatcatacatgaattcaccgggttgcttgaaaaatggggcgtagcccaaaaagaaggaaaaggatcgcaaactctttacagcatcgtcggccaaaaagctgattttatgctgatgatccttcgtcctacaatggaagaattaaatcaaattgagcttgaattcaacaaatcaagacttgctgagttcaccattccggcatactcctacgtatcagtggtagagctgagcaactacttggcaagcggtgacggcgatccttatgaaaatccgcatgtgcgcgctcgcctttaccctgaactgccggaatctaaatatgtatgcttctatccaatggataaaagaagatctggcaacgacaactggtatatgctttcaatggaagaacgcagaaacttgatgagaagccacggtttaatcggccgcagctatgcgggcaaagtcaaacagatcatcaccggctctgtcggctttgacgattacgagtggggcgttacattatttagcgatgatgtccttcaattcaagaagctagtgtacgaaatgcgttttgacgaagtcagcgctcgctatggcgaatttggttcattctttgtcggcaatcacctttcgcttg</t>
         </is>
       </c>
     </row>
@@ -1013,27 +899,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>ldh_del</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTG</t>
+          <t>ttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgattaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>GGGGATCCTCTAGAGTCGACggaaaagcgctttgaaggca</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGT</t>
+          <t>AGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggc</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTGATCCTCTAGAGTCGACCTG</t>
+          <t>AGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttgaaaatgaaaggcattcttgcggcatttcttaccctagccgtcagtttcttcgtctccgtttgggcatttcatatgccggttgaaaaagcgatttcttctgttttgttaggaatcgggagcgggctgtggcccattggctacatcgtcctgatggcggtgtggctgtataaaatcgccgtgaaaaccgggaaatttaccattattcggtccagcattgccggcatttcgcctgaccaacgattacagctattattaattggtttttgttttaacgcgtttttagaaggcgcggccggttttggtgttccgattgcgattagtgcggcgctgctcgtcgaacttggttttaaaccgttaaaagcggcggcgctctgcttgattgcaaacgctgcctccggagcctttggggcgattgggattcctgtcatcacaggggcgcagattggtgatttgtctgctcttgagctgtctcggacattaatgtggacactgccgatgatctcatttttaataccattcctgcttgtattcttattagaccgaatgaaaggaatcaaacagacatggcccgctcttctggttgtgagcggtgggtatacagcggttcagacactgacaatggcggtgctcgggccggaattagcaaacattttggcggccttattcagcatgggcgggcttgccctcttcctccgcaaatggcagccgaaagagatttaccgcgaggaaggggccggcgatgctggtgagaaaaaggcataccgtgccgctgacattgcgaaagcgtggtctcctttctacattttaactgcggcgatcaccatctggagccttcctgccttcaaagcgcttttccGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -1041,12 +927,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>GACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAA</t>
+          <t>aaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttgaaaatgaaaggcattcttgcggcatttcttaccctagccgtcagtttcttcgtctccgtttgggcatttcatatgccggttgaaaaagcgatttcttctgttttgttaggaatcgggagcgggctgtggcccattggctacatcgtcctgatggcggtgtggctgtataaaatcgccgtgaaaaccgggaaatttaccattattcggtccagcattgccggcatttcgcctgaccaacgattacagctattattaattggtttttgttttaacgcgtttttagaaggcgcggccggttttggtgttccgattgcgattagtgcggcgctgctcgtcgaacttggttttaaaccgttaaaagcggcggcgctctgcttgattgcaaacgctgcctccggagcctttggggcgattgggattcctgtcatcacaggggcgcagattggtgatttgtctgctcttgagctgtctcggacattaatgtggacactgccgatgatctcatttttaataccattcctgcttgtattcttattagaccgaatgaaaggaatcaaacagacatggcccgctcttctggttgtgagcggtgggtatacagcggttcagacactgacaatggcggtgctcgggccggaattagcaaacattttggcggccttattcagcatgggcgggcttgccctcttcctccgcaaatggcagccgaaagagatttaccgcgaggaaggggccggcgatgctggtgagaaaaaggcataccgtgccgctgacattgcgaaagcgtggtctcctttctacattttaactgcggcgatcaccatctggagccttcctgccttcaaagcgcttttccaagaaggcgggctgttatatcaatcaacgctcctgttcaaaatgccttttctgcatcagcaaat</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>ccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttgaaaatgaaaggcattcttgcggcatttcttaccctagccgtcagtttcttcgtctccgtttgggcatttcatatgccggttgaaaaagcgatttcttctgttttgttaggaatcgggagcgggctgtggcccattggctacatcgtcctgatggcggtgtggctgtataaaatcgccgtgaaaaccgggaaatttaccattattcggtccagcattgccggcatttcgcctgaccaacgattacagctattattaattggtttttgttttaacgcgtttttagaaggcgcggccggttttggtgttccgattgcgattagtgcggcgctgctcgtcgaacttggttttaaaccgttaaaagcggcggcgctctgcttgattgcaaacgctgcctccggagcctttggggcgattgggattcctgtcatcacaggggcgcagattggtgatttgtctgctcttgagctgtctcggacattaatgtggacactgccgatgatctcatttttaataccattcctgcttgtattcttattagaccgaatgaaaggaatcaaacagacatggcccgctcttctggttgtgagcggtgggtatacagcggttcagacactgacaatggcggtgctcgggccggaattagcaaacattttggcggccttattcagcatgggcgggcttgccctcttcctccgcaaatggcagccgaaagagatttaccgcgaggaaggggccggcgatgctggtgagaaaaaggcataccgtgccgctgacattgcgaaagcgtggtctcctttctacattttaactgcggcgatcaccatctggagccttcctgccttcaaagcgcttttcc</t>
         </is>
       </c>
     </row>
@@ -1056,40 +942,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>alsSD_P43_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGG</t>
+          <t>ataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatttgaattcctccttttataatggtaccgctatcactttatattttacataatcgcgcgctttttttcacgcccatttctaaaaatgtaaaataaatgtaagaattttcagccattacagctttggcaaaaaaataagtaaaccaatgatacacgaaatcacggtaaaaacgcaaacagccccggcggcagcgtccttggccgctttagcaagagggtgatgtttgtcagttattaaatcaaccgtatgttcaatggctgtatttaaaagttcaagcgaaaacataccacctatcaaaaggaatataatcatccactcaataatgctgagctctacaaggaagccgcaaatgagaacagcgcaggcggctgcggcatgaaattggaaattccgctccgtccgcgctgtttcccatatgcAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaata</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>GGGGATCCTCTAGAGTCGACtgttcatgtacctgcatcactct</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGA</t>
+          <t>AGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactct</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTGATCCTCTAGAGTCGACCTG</t>
+          <t>AGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaacaGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1044</v>
+        <v>1089</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATAC</t>
+          <t>tccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaacaatacttgcaatctcttttttcttttgggatt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
+          <t>tgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaaca</t>
         </is>
       </c>
     </row>
@@ -1099,169 +985,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>amyE::P43_budC_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACC</t>
+          <t>ctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtggcatatgggaaacagcgcggacggagcggaatttccaatttcatgccgcagccgcctgcgctgttctcatttgcggcttccttgtagagctcagcattattgagtggatgattatattccttttgataggtggtatgttttcgcttgaacttttaaatacagccattgaacatacggttgatttaataactgacaaacatcaccctcttgctaaagcggccaaggacgctgccgccggggctgtttgcgtttttaccgtgatttcgtgtatcattggtttacttatttttttgccaaagctgtaatggctgaaaattcttacatttattttacatttttagaaatgggcgtgaaaaaaagcgcgcgattatgtaaaatataaagtgatagcggtaccattataaaaggaggaattcaaaATGAAAAAAGTCGCACTTGTTACCGGCTCAGGCCAGGGGATTGGTAAAGCGATTGCGCTGCGCCTGGTGAAAGATGGTTTTGCCGTCGCTATCGCCGACTACAACGATGAGACGGCGAGAGCCGTCGCCGATGAAATCATCCGTAACGGCGGCAACGCCGTCGCCGTGAAGGTGGATGTCTCTGATCGCGACCAGGTGTTTGCGGCGGTGGAGAAAGCCCGCACCGCGCTGGGCGGTTTCAACGTGATTGTGAATAACGCCGGGATTGCGCCATCTACGCCCATCGAATCCATCACGCCGGAGATTGTCGACAAGGTCTACAACATCAACGTGAAAGGGGTGATCTGGGGTATGCAGGCCGCGATTGACGCGTTTCGCAAAGAGGGGCACGGCGGCAAAATCATCAACGCCTGCTCCCAGGCGGGCCACACCGGTAACCCGGAACTGGCGGTGTACAGCTCAAGTAAATTCGCAGTGCGCGGCTTAACCCAGACCGCCGCTCGGGACCTCGCGCCGCTGGGGATCACCGTTAACGCCTACTGCCCGGGTATCGTGAAAACGCCGATGTGGGCGGAGATTGACCGTCAGGTGTCCGAGGCGGCAGGTAAACCGCTTGGTTATGGCACCGAAACCTTTGCCAAACGCATTACGCTTGGCCGCCTGTCCGAACCGGAAGATGTCGCTGCCTGTGTTTCATACCTCGCCGGGCCAGACTCTGACTACATGACTGGTCAGTCGCTCTTGATtGACGGCGGGATGGTaTTTAACTAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
+          <t>GGGGATCCTCTAGAGTCGACcaatggggaagagaaccgct</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
+          <t>AGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagt</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AGTCGCGCGGACGTAACTAAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTGATCCTCTAGAGTCGACCTG</t>
+          <t>AGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1089</v>
+        <v>1050</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTT</t>
+          <t>TTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcaga</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCAACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1055</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ATTGGGGCCTATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATT</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACC</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCAATTCCAGGGGCGGGTTAAG</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1059</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>GGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTT</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>GTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATT</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCAACTTTGCCGGGCCAAAATC</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGC</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>AGTCGCGCGGACGTAACTAAGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTGATCCTCTAGAGTCGACCTG</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1055</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>GGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCGTCGATT</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>AGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTT</t>
+          <t>atagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattg</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,41 +1099,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>bdhA_del</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58.09938459947227</v>
+        <v>55.18892087515667</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.240736765585893</v>
+        <v>-49.74126120999543</v>
       </c>
       <c r="F2" t="n">
-        <v>4.548868491231019</v>
+        <v>3.044173040391058</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>cgcttgagcagctggaggaa</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>62.76004680946511</v>
+        <v>62.79315961081556</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.15177108282046</v>
+        <v>14.09897054034724</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
+          <t>cgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>768</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="3">
@@ -1385,41 +1142,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>acoA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58.09938459947227</v>
+        <v>55.18892087515667</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.240736765585893</v>
+        <v>-49.74126120999543</v>
       </c>
       <c r="F3" t="n">
-        <v>4.548868491231019</v>
+        <v>3.89955117062027</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>agacaaaacgagacacacgtct</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>62.76004680946511</v>
+        <v>60.15928215554493</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.15177108282046</v>
+        <v>-31.79143154055427</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
+          <t>agacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>767</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4">
@@ -1428,41 +1185,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pta_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58.09938459947227</v>
+        <v>55.18892087515667</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.240736765585893</v>
+        <v>-49.74126120999543</v>
       </c>
       <c r="F4" t="n">
-        <v>4.548868491231019</v>
+        <v>-78.09126937481582</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>attaatgaaatatatggttatga</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>62.76004680946511</v>
+        <v>47.00319085875395</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.15177108282046</v>
+        <v>-28.70815482007731</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
+          <t>attaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaattttaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>770</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="5">
@@ -1471,41 +1228,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>ldh_del</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58.09938459947227</v>
+        <v>55.18892087515667</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.240736765585893</v>
+        <v>-49.74126120999543</v>
       </c>
       <c r="F5" t="n">
-        <v>4.548868491231019</v>
+        <v>-27.91370360305305</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>ttcttttttgttcataaatcagaca</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>62.76004680946511</v>
+        <v>54.16348327524099</v>
       </c>
       <c r="I5" t="n">
-        <v>-5.15177108282046</v>
+        <v>-62.2057238989978</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTCCGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
+          <t>ttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgattaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>770</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="6">
@@ -1514,41 +1271,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>alsSD_P43_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58.09938459947227</v>
+        <v>55.18892087515667</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.240736765585893</v>
+        <v>-49.74126120999543</v>
       </c>
       <c r="F6" t="n">
-        <v>4.548868491231019</v>
+        <v>-38.76207611700036</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>ataccgcatcaatttttgcacct</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>62.76004680946511</v>
+        <v>59.80460402578268</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.15177108282046</v>
+        <v>5.767242169250039</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
+          <t>ataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatttgaattcctccttttataatggtaccgctatcactttatattttacataatcgcgcgctttttttcacgcccatttctaaaaatgtaaaataaatgtaagaattttcagccattacagctttggcaaaaaaataagtaaaccaatgatacacgaaatcacggtaaaaacgcaaacagccccggcggcagcgtccttggccgctttagcaagagggtgatgtttgtcagttattaaatcaaccgtatgttcaatggctgtatttaaaagttcaagcgaaaacataccacctatcaaaaggaatataatcatccactcaataatgctgagctctacaaggaagccgcaaatgagaacagcgcaggcggctgcggcatgaaattggaaattccgctccgtccgcgctgtttcccatatgcAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>786</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="7">
@@ -1557,170 +1314,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>amyE::P43_budC_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
+          <t>AGCTACACGCTGTCTTGCTTC</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58.09938459947227</v>
+        <v>55.18892087515667</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.240736765585893</v>
+        <v>-49.74126120999543</v>
       </c>
       <c r="F7" t="n">
-        <v>4.548868491231019</v>
+        <v>-3.235413299984941</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGG</t>
+          <t>ctcccactatgcatctgatgtgt</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>62.76004680946511</v>
+        <v>60.18145735845644</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.15177108282046</v>
+        <v>14.84249622839826</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
+          <t>ctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtggcatatgggaaacagcgcggacggagcggaatttccaatttcatgccgcagccgcctgcgctgttctcatttgcggcttccttgtagagctcagcattattgagtggatgattatattccttttgataggtggtatgttttcgcttgaacttttaaatacagccattgaacatacggttgatttaataactgacaaacatcaccctcttgctaaagcggccaaggacgctgccgccggggctgtttgcgtttttaccgtgatttcgtgtatcattggtttacttatttttttgccaaagctgtaatggctgaaaattcttacatttattttacatttttagaaatgggcgtgaaaaaaagcgcgcgattatgtaaaatataaagtgatagcggtaccattataaaaggaggaattcaaaATGAAAAAAGTCGCACTTGTTACCGGCTCAGGCCAGGGGATTGGTAAAGCGATTGCGCTGCGCCTGGTGAAAGATGGTTTTGCCGTCGCTATCGCCGACTACAACGATGAGACGGCGAGAGCCGTCGCCGATGAAATCATCCGTAACGGCGGCAACGCCGTCGCCGTGAAGGTGGATGTCTCTGATCGCGACCAGGTGTTTGCGGCGGTGGAGAAAGCCCGCACCGCGCTGGGCGGTTTCAACGTGATTGTGAATAACGCCGGGATTGCGCCATCTACGCCCATCGAATCCATCACGCCGGAGATTGTCGACAAGGTCTACAACATCAACGTGAAAGGGGTGATCTGGGGTATGCAGGCCGCGATTGACGCGTTTCGCAAAGAGGGGCACGGCGGCAAAATCATCAACGCCTGCTCCCAGGCGGGCCACACCGGTAACCCGGAACTGGCGGTGTACAGCTCAAGTAAATTCGCAGTGCGCGGCTTAACCCAGACCGCCGCTCGGGACCTCGCGCCGCTGGGGATCACCGTTAACGCCTACTGCCCGGGTATCGTGAAAACGCCGATGTGGGCGGAGATTGACCGTCAGGTGTCCGAGGCGGCAGGTAAACCGCTTGGTTATGGCACCGAAACCTTTGCCAAACGCATTACGCTTGGCCGCCTGTCCGAACCGGAAGATGTCGCTGCCTGTGTTTCATACCTCGCCGGGCCAGACTCTGACTACATGACTGGTCAGTCGCTCTTGATtGACGGCGGGATGGTaTTTAACTAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.419798183427702</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCC</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>62.31526401861862</v>
-      </c>
-      <c r="I8" t="n">
-        <v>40.23016023879239</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.548868491231019</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>CGGCACCCACGAGGAAGG</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>62.76004680946511</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-5.15177108282046</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>CGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GGCTTTCCGCCACAGCAACT</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>58.09938459947227</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-1.240736765585893</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.419798183427702</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCC</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>62.31526401861862</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40.23016023879239</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCC</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1304</v>
+        <v>2418</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1800,41 +1428,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>alsSD_P43_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCT</t>
+          <t>tgatcatcgactgcattacgcaactctttaacgatttcaagagggtgcgctctgtctgatttccaatctgcaggcacctgctcaccttcatgcatatattgttttaaatcagaaaggattttctgctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaaca</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24.76800258547536</v>
+        <v>-22.75753292142625</v>
       </c>
       <c r="E2" t="n">
+        <v>-4.239900307362177</v>
+      </c>
+      <c r="F2" t="n">
         <v>-37.58585084467148</v>
       </c>
-      <c r="F2" t="n">
-        <v>-13.22095732985764</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>tgatcatcgactgcattacgc</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
+          <t>tgttcatgtacctgcatcac</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60.31886934013568</v>
+        <v>58.87274901869984</v>
       </c>
       <c r="J2" t="n">
-        <v>57.55086330201539</v>
+        <v>55.75653746714511</v>
       </c>
       <c r="K2" t="n">
-        <v>2256</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="3">
@@ -1843,256 +1471,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>amyE::P43_budC_ins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGACGACTGTCGTGAAGGCCTGTCCGCGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCT</t>
+          <t>cggtttgaaaggaggaagcggaagaatgaagtaagagggatttttgactccgaagtaagtcttcaaaaaatcaaataaggagtgtcaagaatgtttgcaaaacgattcaaaacctctttactgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtgTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatga</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.76800258547536</v>
+        <v>-38.56392281382165</v>
       </c>
       <c r="E3" t="n">
-        <v>-37.58585084467148</v>
+        <v>-13.78795529085073</v>
       </c>
       <c r="F3" t="n">
-        <v>-13.22095732985764</v>
+        <v>-8.957805992128613</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>cggtttgaaaggaggaagcg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
+          <t>tcattgatggtttctttcggt</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>60.31886934013568</v>
+        <v>59.48268404380332</v>
       </c>
       <c r="J3" t="n">
-        <v>57.55086330201539</v>
+        <v>55.78397080613092</v>
       </c>
       <c r="K3" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_TCC_sub</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGACGACTGTCGTGAAGGCCTGTCCGCGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCA</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-34.09884625412056</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-19.41300150333419</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TGAAGCCATAGAAGCCTGCA</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J4" t="n">
-        <v>59.37996992841437</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_15to19_sub</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGCCTGTCCGCGGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-34.09884625412056</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-19.41300150333419</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TGAAGCCATAGAAGCCTGCA</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59.37996992841437</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_90_ins</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCT</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-37.58585084467148</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-13.22095732985764</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J6" t="n">
-        <v>57.55086330201539</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGGGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCT</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>24.76800258547536</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-37.58585084467148</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-13.22095732985764</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AGCCATAGAAGCCTGCATTT</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60.31886934013568</v>
-      </c>
-      <c r="J7" t="n">
-        <v>57.55086330201539</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGATTTGCCCTGCTCAATGAGTTGGGGCCGAAAATCTATGAGGCTTACACCACGATCGCCCCGGAATCCCGGCCAGCTGCGGTGAATTACAAAACCACCATCGATCAAGGCCTGTCGCAGTTTTCCGAATTCGATGCCGGCATCATCGAAGCCACGCTGCTGACAGAATTGGCAGCGAAACGTCAACGAGAAATCGAACGCGGCTCAAGCCTGGTCGGCCCCCACCGCGATGATGTCGATTTAATGCTCGGCGATCAGCCCGCCAAAGGCTTTGCCAGCCACGGCGAGACCTGGTCTTTCGCGCTTTCACTGCGAATTGCAGAATTTAACCTGCTGAAATCCGATGGCACCGACCCGATCCTCATCTTGGATGATGTGTTTTCCGAGCTCGACGCCGGCCGTCGCGAAAAACTCGTGGGCATAGCGCAAGAGGTGGAACAGGTGCTCATCACCGCTGCAGTCCACGACGATCTGCCGGAGAATCTCAAGAAAGTGCTCACTGCGCAGCACACCGTCACCGTCCAAGACACCGGCACCGGGCGGATTTCACTCCTGGATGTGCAACCATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGTTTGGTGATAAAAACCGTCGAATTGGGGCCTATTTTGCCGTTTCTCGCGTTGGACGCGGTCCGAGAGACACATACGGATAGAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGAATGCCCAAGTTAACGGAAAAACCGAAAGAGGGGCACGCCAGTCTGGTTCTCCCAAACTCAGGACAAATCCTGCCTCGGCGCCTGCGAAAAGTGCCCTCTCCTAAATCGTTTCTAAGGGCTCGTCAGACCCCAGTTGATACAAACATACATTCTGAAAATTCAGTCGCTTAAATGGGCGCAGCGGGAAATGCTGAAAACTACATTAATCACCGATACCCTAGGGCACGTGACCTCTACTGAACCCACCACCACAGCCCATGTTCCACTACCTGATGGATCTTCCACTCCAGTCCAAATTTGGGCGTCAGATAACAAAGACTCCCAACTGGTGATGCTGTGGCCAGGTTTCGGCATGGGTGGCTATTACTATCGTCCGCTTGCGGCAGCGCTAAATAAAGCTGGATTCCATGTGGCGATTGGTGAACTTCGTGGTCAGGGGCAAAGTTCCGCGAAGGCTTCTCGGAAAAGTCAGTGGGGATACCATGATCTCGCATCGGTAGATTTTCCGCTGCAGATTGCCGCTGCGAAAAAGGCGCTTGACCTGGAGGAAGGCCATCCCATGAGGTTTTTGTCGCATTCGATGGGTGGGCAGATTTCTTGTCTTTTCGCAGCGAGGCCGGAGGCTGAGAAATATAATCTTCGGGCGATTTTCGGGGTGGGTGCAGGGTCGCCGTTTAGGCCTACGTTTAGTCCGAAAATGGGGAAGCGTTTGGGATTGGGTGCGGTGCTGCTTGGTGGGATTGGTGGCCACATTGTGGGATTTTGGCCCGGCAAAGTTTTAGGAAAAGACCTGGTGGGTTATGGCCGACAATCGGGAACTCACATGAGGGAATGGCG</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>17.40581710487936</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.747471071069924</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-2.800869133788524</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CGCCATTCCCTCATGTGAGT</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>60.03572498371517</v>
-      </c>
-      <c r="J8" t="n">
-        <v>60.10750822183508</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2245</v>
+        <v>2142</v>
       </c>
     </row>
   </sheetData>
@@ -2172,41 +1585,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
+          <t>alsSD_P43_sub</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
+          <t>tttgaattcctccttttataatggt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>AGTTCGAACTTAAGAGATCTgcatatgggaaacagcgcg</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>52.54718254163936</v>
+        <v>48.92481147940509</v>
       </c>
       <c r="F2" t="n">
-        <v>67.01747875103928</v>
+        <v>65.45917306940544</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTC</t>
+          <t>tttgaattcctccttttataatggtaccgctatcactttatattttacataatcgcgcgctttttttcacgcccatttctaaaaatgtaaaataaatgtaagaattttcagccattacagctttggcaaaaaaataagtaaaccaatgatacacgaaatcacggtaaaaacgcaaacagccccggcggcagcgtccttggccgctttagcaagagggtgatgtttgtcagttattaaatcaaccgtatgttcaatggctgtatttaaaagttcaagcgaaaacataccacctatcaaaaggaatataatcatccactcaataatgctgagctctacaaggaagccgcaaatgagaacagcgcaggcggctgcggcatgaaattggaaattccgctccgtccgcgctgtttcccatatgcAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>557</v>
+        <v>439</v>
       </c>
       <c r="I2" t="n">
-        <v>3.907304465258903</v>
+        <v>-0.7530028647180981</v>
       </c>
       <c r="J2" t="n">
-        <v>3.239052365932593</v>
+        <v>20.05883744887257</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.840496186381699</v>
+        <v>-23.82331753058514</v>
       </c>
     </row>
     <row r="3">
@@ -2215,41 +1628,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub</t>
+          <t>amyE::P43_budC_ins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGG</t>
+          <t>gcatatgggaaacagcgcg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GAAGATGAGTTCTGGCTCACCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>AGTTCGAACTTAAGAGATCTTTAGTTAAAtACCATCCCGCCGT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>52.54718254163936</v>
+        <v>54.42729585582515</v>
       </c>
       <c r="F3" t="n">
-        <v>67.01747875103928</v>
+        <v>63.86329705448878</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ATGACAGATCCAATTGAGCAGGCATTTGAACGCATCCGCGCCGAAGCCATGCGCAGAAATGGATCCGTTCCCGACCTCAATAAAAACGATGCTTTTCGACGCCCACCTGCGCCGAAAGGGGGCGTCGAAAAGCGCAAAAAAGGCCGTGCAAGCGGCCTAGACGGCCGCCAGAAACGATATGTGCGCGGCGCGGAGTCGCTGGGATCGGTGCTGAACAAGGAAATTCAGCGTCGTGGCTGGGGCAAAGACATTGCCGGCGGTTGGGTGACGTCCAACTGGGAAGAGCTTGTTGGCGCGAAGATTGCGCAGCATACGCGCGTGGAAATGATCAAAGATAAGAAGCTTTTTATCACTTGTGATTCCACAGCGTGGGCCACCAATCTGCGCATGATGCAGCGGCAAATCCTGCAGGTAATCGCTGAAAAAGTGGGTCCAAATATTATTACAGAGCTGCGTATTTTTGGGCCTCAGGCCCCAAGCTGGCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTGAGCCAGAACTCATCTTC</t>
+          <t>gcatatgggaaacagcgcggacggagcggaatttccaatttcatgccgcagccgcctgcgctgttctcatttgcggcttccttgtagagctcagcattattgagtggatgattatattccttttgataggtggtatgttttcgcttgaacttttaaatacagccattgaacatacggttgatttaataactgacaaacatcaccctcttgctaaagcggccaaggacgctgccgccggggctgtttgcgtttttaccgtgatttcgtgtatcattggtttacttatttttttgccaaagctgtaatggctgaaaattcttacatttattttacatttttagaaatgggcgtgaaaaaaagcgcgcgattatgtaaaatataaagtgatagcggtaccattataaaaggaggaattcaaaATGAAAAAAGTCGCACTTGTTACCGGCTCAGGCCAGGGGATTGGTAAAGCGATTGCGCTGCGCCTGGTGAAAGATGGTTTTGCCGTCGCTATCGCCGACTACAACGATGAGACGGCGAGAGCCGTCGCCGATGAAATCATCCGTAACGGCGGCAACGCCGTCGCCGTGAAGGTGGATGTCTCTGATCGCGACCAGGTGTTTGCGGCGGTGGAGAAAGCCCGCACCGCGCTGGGCGGTTTCAACGTGATTGTGAATAACGCCGGGATTGCGCCATCTACGCCCATCGAATCCATCACGCCGGAGATTGTCGACAAGGTCTACAACATCAACGTGAAAGGGGTGATCTGGGGTATGCAGGCCGCGATTGACGCGTTTCGCAAAGAGGGGCACGGCGGCAAAATCATCAACGCCTGCTCCCAGGCGGGCCACACCGGTAACCCGGAACTGGCGGTGTACAGCTCAAGTAAATTCGCAGTGCGCGGCTTAACCCAGACCGCCGCTCGGGACCTCGCGCCGCTGGGGATCACCGTTAACGCCTACTGCCCGGGTATCGTGAAAACGCCGATGTGGGCGGAGATTGACCGTCAGGTGTCCGAGGCGGCAGGTAAACCGCTTGGTTATGGCACCGAAACCTTTGCCAAACGCATTACGCTTGGCCGCCTGTCCGAACCGGAAGATGTCGCTGCCTGTGTTTCATACCTCGCCGGGCCAGACTCTGACTACATGACTGGTCAGTCGCTCTTGATtGACGGCGGGATGGTaTTTAACTAAAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>557</v>
+        <v>1210</v>
       </c>
       <c r="I3" t="n">
-        <v>3.907304465258903</v>
+        <v>-3.358905637639964</v>
       </c>
       <c r="J3" t="n">
-        <v>3.239052365932593</v>
+        <v>20.05883744887257</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.840496186381699</v>
+        <v>-20.67994124590209</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +1676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2329,41 +1742,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub</t>
+          <t>bdhA_del</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-7.206200170467866</v>
+        <v>25.1418733490458</v>
       </c>
       <c r="E2" t="n">
-        <v>31.44122408679118</v>
+        <v>22.67095541698984</v>
       </c>
       <c r="F2" t="n">
-        <v>-48.36656690855659</v>
+        <v>-49.30664285464223</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>57.39168379981049</v>
+        <v>60.44808904346149</v>
       </c>
       <c r="J2" t="n">
-        <v>60.51188660655191</v>
+        <v>60.75421688518662</v>
       </c>
       <c r="K2" t="n">
-        <v>1575</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="3">
@@ -2372,41 +1785,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del</t>
+          <t>acoA_del</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-7.206200170467866</v>
+        <v>25.1418733490458</v>
       </c>
       <c r="E3" t="n">
-        <v>31.44122408679118</v>
+        <v>22.67095541698984</v>
       </c>
       <c r="F3" t="n">
-        <v>-48.36656690855659</v>
+        <v>-49.30664285464223</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>57.39168379981049</v>
+        <v>60.44808904346149</v>
       </c>
       <c r="J3" t="n">
-        <v>60.51188660655191</v>
+        <v>60.75421688518662</v>
       </c>
       <c r="K3" t="n">
-        <v>1575</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="4">
@@ -2415,41 +1828,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins</t>
+          <t>pta_del</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-7.206200170467866</v>
+        <v>25.1418733490458</v>
       </c>
       <c r="E4" t="n">
-        <v>31.44122408679118</v>
+        <v>22.67095541698984</v>
       </c>
       <c r="F4" t="n">
-        <v>-48.36656690855659</v>
+        <v>-49.30664285464223</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>57.39168379981049</v>
+        <v>60.44808904346149</v>
       </c>
       <c r="J4" t="n">
-        <v>60.51188660655191</v>
+        <v>60.75421688518662</v>
       </c>
       <c r="K4" t="n">
-        <v>1575</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="5">
@@ -2458,41 +1871,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub</t>
+          <t>ldh_del</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-7.206200170467866</v>
+        <v>25.1418733490458</v>
       </c>
       <c r="E5" t="n">
-        <v>31.44122408679118</v>
+        <v>22.67095541698984</v>
       </c>
       <c r="F5" t="n">
-        <v>-48.36656690855659</v>
+        <v>-49.30664285464223</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>57.39168379981049</v>
+        <v>60.44808904346149</v>
       </c>
       <c r="J5" t="n">
-        <v>60.51188660655191</v>
+        <v>60.75421688518662</v>
       </c>
       <c r="K5" t="n">
-        <v>1575</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="6">
@@ -2501,41 +1914,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub</t>
+          <t>alsSD_P43_sub</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-7.206200170467866</v>
+        <v>25.1418733490458</v>
       </c>
       <c r="E6" t="n">
-        <v>31.44122408679118</v>
+        <v>22.67095541698984</v>
       </c>
       <c r="F6" t="n">
-        <v>-48.36656690855659</v>
+        <v>-49.30664285464223</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>57.39168379981049</v>
+        <v>60.44808904346149</v>
       </c>
       <c r="J6" t="n">
-        <v>60.51188660655191</v>
+        <v>60.75421688518662</v>
       </c>
       <c r="K6" t="n">
-        <v>1575</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="7">
@@ -2544,170 +1957,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>amyE::P43_budC_ins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-7.206200170467866</v>
+        <v>25.1418733490458</v>
       </c>
       <c r="E7" t="n">
-        <v>31.44122408679118</v>
+        <v>22.67095541698984</v>
       </c>
       <c r="F7" t="n">
-        <v>-48.36656690855659</v>
+        <v>-49.30664285464223</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
+          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
+          <t>CTGCAGGCATGCATTACCCT</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>57.39168379981049</v>
+        <v>60.44808904346149</v>
       </c>
       <c r="J7" t="n">
-        <v>60.51188660655191</v>
+        <v>60.75421688518662</v>
       </c>
       <c r="K7" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cgl0006_cds_del</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>57.39168379981049</v>
-      </c>
-      <c r="J8" t="n">
-        <v>60.51188660655191</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cgl0006_1176_Cgl0005_ins</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>57.39168379981049</v>
-      </c>
-      <c r="J9" t="n">
-        <v>60.51188660655191</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cgl0006_Cgl0005_sub</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCTTTGCTCGAAACCTGGCGCCAAGTTGTTGCCGATCTCACAACTTTGAGCCAGCAAGCGGACAGTGGATTCGACCCATTGACGCCAACTCAACGTGCATATTTGAACCTGACGAAGCCGATTGCCATCGTCGATGGCTACGCCGTGCTGTCCACACCCAACGCGATGGCAAAAAATGTCATTGAAAACGATTTGGGCGATGCTTTGACCCGTGTGTTGTCGCTGCGCATGGGCCGATCATTCAGCTTGGCTGTCAGTGTGGAGCCTGAGCAGGAAATTCCAGAAACCCCAGCTCAGCAGGAGTTTAAATATCAGCCTGACGCACCTGTGATCTCTTCCAACAAGGCGCCAAAGCAGTATGAAGTTGGTGGTCGGGGAGAGGCGTCGACAAGCGACGGCTGGGAACGTACCCACTCTGCACCGGCTCCCGAGCCGCACCCGGCACCTATCGCCGATCCTGAGCCAGAGCTGGCCACCCCGCAGCGCATTCCGCGCGAAACCCCAGCTCACAACCCTAATCGGGAAGTGTCCCTCAACCCGAAATACACTTTTGAAAGCTTCGTGATCGGGCCGTTCAACCGTTTCGCCAATGCAGCCGCAGTTGCTGTGGCGGAAAGCCCAGCGAAAGCTTTCAACCCGCTGTTTATTTCCGGCGGTTCCGGCTTGGGCAAAACTCACCTGCTGCACGCAGTAGGAAATTATGCTCAAGAATTGCAGCCTGGCCTGCGGATTAAGTACGTCTCAAGTGAGGAATTCACCAACGACTACATCAACTCCGTGCGAGATGACCGCCAGGAAACCTTCAAGCGCCGCTACCGCAACCTGGATATCCTCATGGTCGATGACATCCAGTTCCTGGCTGGCAAAGAAGGCACCCAGGAAGAGTTCTTCCATACCTTCAACGCATTGCACCAGGCAGATAAGCAAATTATTTTATCCTCGGACCGCCCACCCAAGCAGCTGACCACGCTGGAAGATCGCCTGCGCACCCGCTTCGAAGGTGGCCTGATTACTGATATTCAGCCACCTGACCTGGAAACTCGCATCGCGATTTTGATGAAGAAGGCCCAAACCGATGGCACGCACGTGGATAGGGAAGTCCTCGAGCTCATTGCCAGCCGCTTTGAATCTTCGATCCGTGAATTGGAAGGCGCACTGATTCGTGTGTCTGCCTATTCTTCGTTGATTAATCAGCCGATCGATAAAGAAATGGCCATCGTGGCGCTGCGCGATATCCTCCCAGAACCTGAGGATATGGAAATCACCGCACCGGTGATCATGGAGGTCACTGCGGAATATTTTGAAATTTCCGTGGATACACTCCGTGGAGCAGGCAAAACTCGTGCGGTCGCGCATGCACGCCAACTGGCGATGTACCTGTGCCGCGAGCTCACCGATATGTCATTGCCCAAGATCGGTGATGTGTTCGGCGGAAAAGACCACACAACTGTCATGTACGCGGATCGGAAGATTCGCCAAGAAATGACAGAAAAGCGCGATACCTACGATGAAATCCAGCAACTTACCCAGCTGATTAAGTCGCGCGGACGTAACTAA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-7.206200170467866</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31.44122408679118</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-48.36656690855659</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>GTGAGCCAGAACTCATCTTCT</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>TTAGTTACGTCCGCGCGAC</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>57.39168379981049</v>
-      </c>
-      <c r="J10" t="n">
-        <v>60.51188660655191</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1575</v>
+        <v>2048</v>
       </c>
     </row>
   </sheetData>

--- a/PDS/test_output/Design_results.xlsx
+++ b/PDS/test_output/Design_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,36 +481,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bdhA_del</t>
+          <t>BSU_00020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTgagacaactcccatgtgtgga</t>
+          <t>ACGTCTCACATATGACTAGTGCATGCGATCGGCCATTATG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtttgaaaccaaaaagaatccgcac</t>
+          <t>AGTTCGAACTTAAGAGATCTTTTTATCCTCCTAACGGATAATGT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gagacaactcccatgtgtggaggtttatgctggtcattgcgtcacttccagccttgttcctgtttttcggcatgatcagaatgcccgagagtccccgttggcttgtttctaaaggaagaaaagaagatgctttgcgtgtattgaaaaaaatcagggacgaaaaacgggcagcagctgagctgcaagaaattgaattcgctttcaaaaaagaagaccagcttgaaaaagcgacatttaaagatctttcagtcccatgggtgcgccgtattgtgtttattggattagggattgcgattgtacagcaaattacaggtgtgaattcgattatgtattatgggactgaaattctaagaaattccggtttccaaacggaagccgctttaatcggaaatattgcgaatggcgtgatttcggtattggcaacattcgtcggaatctggctgctgggaagagtggggcgccggccgatgctgatgacaggcttgatcggtacgacaacagcattattgctaatcgggatattctcacttgtacttgaaggatcaccggcacttccgtatgtagtcctgtcattaacggtcacatttcttgcttttcagcagggcgccatttcaccagtgacttggctgatgctatctgaaattttcccgcttcgccttcgcggactgggaatgggtgttacggtattctgtctgtggatggtgaattttgcagtcagtttcacgtttccgatattgctggcagctatcgggctgtccacaacgttctttatcttcgttggattaggaatttgctctgtcttgtttgtgaagaggtttttgccggaaacgaaagggctttcgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaa</t>
+          <t>GCATGCGATCGGCCATTATGTAATAGATCATAATCCTTCTGCCAAAGTGGTTTATCTGTCTTCTGAGAAATTTACAAACGAATTCATCAACTCTATCCGAGATAATAAAGCCGTCGACTTCCGCAATCGCTATCGAAATGTTGATGTGCTTTTGATAGATGATATTCAATTTTTAGCGGGGAAAGAACAAACCCAGGAAGAATTTTTCCATACATTTAACACATTACACGAAGAAAGCAAACAAATCGTCATTTCAAGTGACCGGCCGCCAAAGGAAATTCCGACACTTGAAGACAGATTGCGCTCACGTTTTGAATGGGGACTTATTACAGATATCACACCGCCTGATCTAGAAACGAGAATTGCAATTTTAAGAAAAAAGGCCAAAGCAGAGGGCCTCGATATTCCGAACGAGGTTATGCTTTACATCGCGAATCAAATCGACAGCAATATTCGGGAACTCGAAGGAGCATTAATCAGAGTTGTCGCTTATTCATCTTTAATTAATAAAGATATTAATGCTGATCTGGCCGCTGAGGCGTTGAAAGATATTATTCCTTCCTCAAAACCGAAAGTCATTACGATAAAAGAAATTCAGAGGGTAGTAGGCCAGCAATTTAATATTAAACTCGAGGATTTCAAAGCAAAAAAACGGACAAAGTCAGTAGCTTTTCCGCGTCAAATCGCCATGTACTTATCAAGGGAAATGACTGATTCCTCTCTTCCTAAAATCGGTGAAGAGTTTGGAGGACGTGATCATACGACCGTTATTCATGCGCATGAAAAAATTTCAAAACTGCTGGCAGATGATGAACAGCTTCAGCAGCATGTAAAAGAAATTAAAGAACAGCTTAAATAGCAGGACCGGGGATCAATCGGGGAAAGTGTGAATAACTTTTCGGAAGTCATACACAGTCTGTCCACATGTGGATAGGCTGTGTTTCCTGTCTTTTTCACAACTTATCCACAAATCCACAGGCCCTACTATTACTTCTACTATTTTTTATAAATATATATATTAATACATTATCCGTTAGGAGGATAAAA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>gtgcctgcctatttagcagagatgtctcctgtggaaagcaggggacggatggtgacgcagaacgaattgatgattgtatcaggacagcttttggcctttgtttttaatgcgatccttggaacaacaatgggagacaactcccatgtgtggaggtttatgctggtcattgcgtcacttccagccttgttcctgtttttcggcatgatcagaatgcccgagagtccccgttggcttgtttctaaaggaagaaaagaagatgctttgcgtgtattgaaaaaaatcagggacgaaaaacgggcagcagctgagctgcaagaaattgaattcgctttcaaaaaagaagaccagcttgaaaaagcgacatttaaagatctttcagtcccatgggtgcgccgtattgtgtttattggattagggattgcgattgtacagcaaattacaggtgtgaattcgattatgtattatgggactgaaattctaagaaattccggtttccaaacggaagccgctttaatcggaaatattgcgaatggcgtgatttcggtattggcaacattcgtcggaatctggctgctgggaagagtggggcgccggccgatgctgatgacaggcttgatcggtacgacaacagcattattgctaatcgggatattctcacttgtacttgaaggatcaccggcacttccgtatgtagtcctgtcattaacggtcacatttcttgcttttcagcagggcgccatttcaccagtgacttggctgatgctatctgaaattttcccgcttcgccttcgcggactgggaatgggtgttacggtattctgtctgtggatggtgaattttgcagtcagtttcacgtttccgatattgctggcagctatcgggctgtccacaacgttctttatcttcgttggattaggaatttgctctgtcttgtttgtgaagaggtttttgccggaaacgaaagggctttcgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaa</t>
+          <t>ATACTTTTGTCATCGGATCTGGAAACCGATTTGCACATGCTGCTTCCCTCGCAGTAGCGGAAGCGCCCGCGAAAGCTTACAACCCTTTATTTATCTATGGGGGCGTCGGCTTAGGGAAAACACACTTAATGCATGCGATCGGCCATTATGTAATAGATCATAATCCTTCTGCCAAAGTGGTTTATCTGTCTTCTGAGAAATTTACAAACGAATTCATCAACTCTATCCGAGATAATAAAGCCGTCGACTTCCGCAATCGCTATCGAAATGTTGATGTGCTTTTGATAGATGATATTCAATTTTTAGCGGGGAAAGAACAAACCCAGGAAGAATTTTTCCATACATTTAACACATTACACGAAGAAAGCAAACAAATCGTCATTTCAAGTGACCGGCCGCCAAAGGAAATTCCGACACTTGAAGACAGATTGCGCTCACGTTTTGAATGGGGACTTATTACAGATATCACACCGCCTGATCTAGAAACGAGAATTGCAATTTTAAGAAAAAAGGCCAAAGCAGAGGGCCTCGATATTCCGAACGAGGTTATGCTTTACATCGCGAATCAAATCGACAGCAATATTCGGGAACTCGAAGGAGCATTAATCAGAGTTGTCGCTTATTCATCTTTAATTAATAAAGATATTAATGCTGATCTGGCCGCTGAGGCGTTGAAAGATATTATTCCTTCCTCAAAACCGAAAGTCATTACGATAAAAGAAATTCAGAGGGTAGTAGGCCAGCAATTTAATATTAAACTCGAGGATTTCAAAGCAAAAAAACGGACAAAGTCAGTAGCTTTTCCGCGTCAAATCGCCATGTACTTATCAAGGGAAATGACTGATTCCTCTCTTCCTAAAATCGGTGAAGAGTTTGGAGGACGTGATCATACGACCGTTATTCATGCGCATGAAAAAATTTCAAAACTGCTGGCAGATGATGAACAGCTTCAGCAGCATGTAAAAGAAATTAAAGAACAGCTTAAATAGCAGGACCGGGGATCAATCGGGGAAAGTGTGAATAACTTTTCGGAAGTCATACACAGTCTGTCCACATGTGGATAGGCTGTGTTTCCTGTCTTTTTCACAACTTATCCACAAATCCACAGGCCCTACTATTACTTCTACTATTTTTTATAAATATATATATTAATACATTATCCGTTAGGAGGATAAAA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTgagacaactcccatgtgtggaggtttatgctggtcattgcgtcacttccagccttgttcctgtttttcggcatgatcagaatgcccgagagtccccgttggcttgtttctaaaggaagaaaagaagatgctttgcgtgtattgaaaaaaatcagggacgaaaaacgggcagcagctgagctgcaagaaattgaattcgctttcaaaaaagaagaccagcttgaaaaagcgacatttaaagatctttcagtcccatgggtgcgccgtattgtgtttattggattagggattgcgattgtacagcaaattacaggtgtgaattcgattatgtattatgggactgaaattctaagaaattccggtttccaaacggaagccgctttaatcggaaatattgcgaatggcgtgatttcggtattggcaacattcgtcggaatctggctgctgggaagagtggggcgccggccgatgctgatgacaggcttgatcggtacgacaacagcattattgctaatcgggatattctcacttgtacttgaaggatcaccggcacttccgtatgtagtcctgtcattaacggtcacatttcttgcttttcagcagggcgccatttcaccagtgacttggctgatgctatctgaaattttcccgcttcgccttcgcggactgggaatgggtgttacggtattctgtctgtggatggtgaattttgcagtcagtttcacgtttccgatattgctggcagctatcgggctgtccacaacgttctttatcttcgttggattaggaatttgctctgtcttgtttgtgaagaggtttttgccggaaacgaaagggctttcgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaaAGATCTCTTAAGTTCGAACT</t>
+          <t>ACGTCTCACATATGACTAGTGCATGCGATCGGCCATTATGTAATAGATCATAATCCTTCTGCCAAAGTGGTTTATCTGTCTTCTGAGAAATTTACAAACGAATTCATCAACTCTATCCGAGATAATAAAGCCGTCGACTTCCGCAATCGCTATCGAAATGTTGATGTGCTTTTGATAGATGATATTCAATTTTTAGCGGGGAAAGAACAAACCCAGGAAGAATTTTTCCATACATTTAACACATTACACGAAGAAAGCAAACAAATCGTCATTTCAAGTGACCGGCCGCCAAAGGAAATTCCGACACTTGAAGACAGATTGCGCTCACGTTTTGAATGGGGACTTATTACAGATATCACACCGCCTGATCTAGAAACGAGAATTGCAATTTTAAGAAAAAAGGCCAAAGCAGAGGGCCTCGATATTCCGAACGAGGTTATGCTTTACATCGCGAATCAAATCGACAGCAATATTCGGGAACTCGAAGGAGCATTAATCAGAGTTGTCGCTTATTCATCTTTAATTAATAAAGATATTAATGCTGATCTGGCCGCTGAGGCGTTGAAAGATATTATTCCTTCCTCAAAACCGAAAGTCATTACGATAAAAGAAATTCAGAGGGTAGTAGGCCAGCAATTTAATATTAAACTCGAGGATTTCAAAGCAAAAAAACGGACAAAGTCAGTAGCTTTTCCGCGTCAAATCGCCATGTACTTATCAAGGGAAATGACTGATTCCTCTCTTCCTAAAATCGGTGAAGAGTTTGGAGGACGTGATCATACGACCGTTATTCATGCGCATGAAAAAATTTCAAAACTGCTGGCAGATGATGAACAGCTTCAGCAGCATGTAAAAGAAATTAAAGAACAGCTTAAATAGCAGGACCGGGGATCAATCGGGGAAAGTGTGAATAACTTTTCGGAAGTCATACACAGTCTGTCCACATGTGGATAGGCTGTGTTTCCTGTCTTTTTCACAACTTATCCACAAATCCACAGGCCCTACTATTACTTCTACTATTTTTTATAAATATATATATTAATACATTATCCGTTAGGAGGATAAAAAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1010</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3">
@@ -519,36 +519,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acoA_del</t>
+          <t>BSU_00030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTccgggctgttgaagaaaagc</t>
+          <t>ACGTCTCACATATGACTAGTGCATCGTTTTACAGGCTCGC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtttgtgcgcctccttctatt</t>
+          <t>AGTTCGAACTTAAGAGATCTTATATCGACCTCTTTCAAATATCAC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ccgggctgttgaagaaaagcatgaactgtagcacgtacatatgaggaaaagagtgggaacatgaaaaaacttgtgtttggcttgcttgccattgtgttattcggatgcggactatatatctatcatgtatggttcggtgatccattttcgaaaaatgctgcagaacagaagctagtgtcttatgtgaaacaaacctatcctaagaaagaaatcaagatcacgaatggggtatataacgctaaaacgtctgaatatgtatttgaagcaacctcccaatctcatcgctacccaatgtgtacgaagggatttctgcatcctaaagtaacgtgcgatggaattgaagaagcgtataccgaatcagtagcaaaacatgtaaatgaagaagcaacgaaggcaatcgaagcagatctgaaaaaagcggttcctcgatttataaaagctgatgctgctttgagtatcgaaaacggacagttcacgttagatacaaaatggaacaaaaagctggctgaaaaagcgcctatgagcatgacgattcagttagacgccagcgggttatcaaaaacagatgccgcaaagatggcggaaacggtcagaaaaacgcttaatgaaaagggatatacatactcaaacggcacgatagactgtatgcagaaggacggggacggcggtattggatatgtcaaatattcaattgattttctttcaaaagcagctattcagtcaaacgatgcagaggaactaggaagttaaaaagatttccaaggaaataaatacgtcgatcattgtcaaaggccgggtgatatccggtcttttttttgcatgctgtaaaacgagacaaatgaatcagtttgagacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaa</t>
+          <t>GCATCGTTTTACAGGCTCGCTTTTTTAGTGAAATTGTAAAAAAATTGCCGATGGCAACTGTAGAAATTGAAGTCCAAAATCAGTATTTGACGATTATCCGTTCTGGTAAAGCTGAATTTAATCTAAACGGACTGGATGCTGATGAATATCCGCACTTGCCGCAGATTGAAGAGCATCATGCGATTCAGATCCCAACTGATTTGTTAAAAAATCTAATCAGACAAACAGTATTTGCAGTGTCCACCTCAGAAACACGCCCTATCTTGACAGGTGTAAACTGGAAAGTGGAGCAAAGTGAATTATTATGCACTGCAACGGATAGCCACCGTCTTGCATTAAGAAAGGCGAAACTTGATATTCCAGAAGACAGATCTTATAACGTCGTGATTCCGGGAAAAAGTTTAACTGAACTCAGCAAGATTTTAGATGACAACCAGGAACTTGTAGATATCGTCATCACAGAAACCCAAGTTCTGTTTAAAGCGAAAAACGTCTTGTTCTTCTCACGGCTTCTGGACGGGAATTATCCAGACACAACCAGCCTGATTCCGCAAGACAGCAAAACAGAAATCATTGTGAACACAAAAGAATTCCTTCAGGCCATTGATCGTGCATCTCTTTTAGCTAGAGAGGGACGCAACAACGTTGTAAAACTGTCCGCAAAACCGGCTGAATCCATTGAAATTTCTTCCAATTCGCCAGAAATCGGTAAAGTTGTGGAAGCAATTGTTGCGGATCAAATTGAAGGTGAGGAATTAAATATCTCTTTTAGTCCAAAATATATGCTGGATGCACTAAAGGTGCTTGAAGGAGCAGAAATACGCGTAAGCTTTACAGGCGCAATGAGACCTTTCTTAATTCGCACGCCGAATGATGAAACGATTGTACAGCTTATCCTTCCTGTCAGAACCTATTAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>tcgaagagctagtcatgcttggcggaaaaaaatatcgaagcgttctaaacgccgtcatcggagaacaccagcatatcagctggccgctatcatcatacaaaggcataggctatatgctccaagcgctgaaccgggctgttgaagaaaagcatgaactgtagcacgtacatatgaggaaaagagtgggaacatgaaaaaacttgtgtttggcttgcttgccattgtgttattcggatgcggactatatatctatcatgtatggttcggtgatccattttcgaaaaatgctgcagaacagaagctagtgtcttatgtgaaacaaacctatcctaagaaagaaatcaagatcacgaatggggtatataacgctaaaacgtctgaatatgtatttgaagcaacctcccaatctcatcgctacccaatgtgtacgaagggatttctgcatcctaaagtaacgtgcgatggaattgaagaagcgtataccgaatcagtagcaaaacatgtaaatgaagaagcaacgaaggcaatcgaagcagatctgaaaaaagcggttcctcgatttataaaagctgatgctgctttgagtatcgaaaacggacagttcacgttagatacaaaatggaacaaaaagctggctgaaaaagcgcctatgagcatgacgattcagttagacgccagcgggttatcaaaaacagatgccgcaaagatggcggaaacggtcagaaaaacgcttaatgaaaagggatatacatactcaaacggcacgatagactgtatgcagaaggacggggacggcggtattggatatgtcaaatattcaattgattttctttcaaaagcagctattcagtcaaacgatgcagaggaactaggaagttaaaaagatttccaaggaaataaatacgtcgatcattgtcaaaggccgggtgatatccggtcttttttttgcatgctgtaaaacgagacaaatgaatcagtttgagacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaa</t>
+          <t>ACTGGTATTAAAATTGTTGCATCAGATGATGGAGTATCCTTTACAGGGAGTGACTCAGATATTTCTATTGAATCCTTCATTCCAAAAGAAGAAGGAGATAAAGAAATCGTCACTATTGAACAGCCCGGAAGCATCGTTTTACAGGCTCGCTTTTTTAGTGAAATTGTAAAAAAATTGCCGATGGCAACTGTAGAAATTGAAGTCCAAAATCAGTATTTGACGATTATCCGTTCTGGTAAAGCTGAATTTAATCTAAACGGACTGGATGCTGATGAATATCCGCACTTGCCGCAGATTGAAGAGCATCATGCGATTCAGATCCCAACTGATTTGTTAAAAAATCTAATCAGACAAACAGTATTTGCAGTGTCCACCTCAGAAACACGCCCTATCTTGACAGGTGTAAACTGGAAAGTGGAGCAAAGTGAATTATTATGCACTGCAACGGATAGCCACCGTCTTGCATTAAGAAAGGCGAAACTTGATATTCCAGAAGACAGATCTTATAACGTCGTGATTCCGGGAAAAAGTTTAACTGAACTCAGCAAGATTTTAGATGACAACCAGGAACTTGTAGATATCGTCATCACAGAAACCCAAGTTCTGTTTAAAGCGAAAAACGTCTTGTTCTTCTCACGGCTTCTGGACGGGAATTATCCAGACACAACCAGCCTGATTCCGCAAGACAGCAAAACAGAAATCATTGTGAACACAAAAGAATTCCTTCAGGCCATTGATCGTGCATCTCTTTTAGCTAGAGAGGGACGCAACAACGTTGTAAAACTGTCCGCAAAACCGGCTGAATCCATTGAAATTTCTTCCAATTCGCCAGAAATCGGTAAAGTTGTGGAAGCAATTGTTGCGGATCAAATTGAAGGTGAGGAATTAAATATCTCTTTTAGTCCAAAATATATGCTGGATGCACTAAAGGTGCTTGAAGGAGCAGAAATACGCGTAAGCTTTACAGGCGCAATGAGACCTTTCTTAATTCGCACGCCGAATGATGAAACGATTGTACAGCTTATCCTTCCTGTCAGAACCTATTAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTccgggctgttgaagaaaagcatgaactgtagcacgtacatatgaggaaaagagtgggaacatgaaaaaacttgtgtttggcttgcttgccattgtgttattcggatgcggactatatatctatcatgtatggttcggtgatccattttcgaaaaatgctgcagaacagaagctagtgtcttatgtgaaacaaacctatcctaagaaagaaatcaagatcacgaatggggtatataacgctaaaacgtctgaatatgtatttgaagcaacctcccaatctcatcgctacccaatgtgtacgaagggatttctgcatcctaaagtaacgtgcgatggaattgaagaagcgtataccgaatcagtagcaaaacatgtaaatgaagaagcaacgaaggcaatcgaagcagatctgaaaaaagcggttcctcgatttataaaagctgatgctgctttgagtatcgaaaacggacagttcacgttagatacaaaatggaacaaaaagctggctgaaaaagcgcctatgagcatgacgattcagttagacgccagcgggttatcaaaaacagatgccgcaaagatggcggaaacggtcagaaaaacgcttaatgaaaagggatatacatactcaaacggcacgatagactgtatgcagaaggacggggacggcggtattggatatgtcaaatattcaattgattttctttcaaaagcagctattcagtcaaacgatgcagaggaactaggaagttaaaaagatttccaaggaaataaatacgtcgatcattgtcaaaggccgggtgatatccggtcttttttttgcatgctgtaaaacgagacaaatgaatcagtttgagacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaaAGATCTCTTAAGTTCGAACT</t>
+          <t>ACGTCTCACATATGACTAGTGCATCGTTTTACAGGCTCGCTTTTTTAGTGAAATTGTAAAAAAATTGCCGATGGCAACTGTAGAAATTGAAGTCCAAAATCAGTATTTGACGATTATCCGTTCTGGTAAAGCTGAATTTAATCTAAACGGACTGGATGCTGATGAATATCCGCACTTGCCGCAGATTGAAGAGCATCATGCGATTCAGATCCCAACTGATTTGTTAAAAAATCTAATCAGACAAACAGTATTTGCAGTGTCCACCTCAGAAACACGCCCTATCTTGACAGGTGTAAACTGGAAAGTGGAGCAAAGTGAATTATTATGCACTGCAACGGATAGCCACCGTCTTGCATTAAGAAAGGCGAAACTTGATATTCCAGAAGACAGATCTTATAACGTCGTGATTCCGGGAAAAAGTTTAACTGAACTCAGCAAGATTTTAGATGACAACCAGGAACTTGTAGATATCGTCATCACAGAAACCCAAGTTCTGTTTAAAGCGAAAAACGTCTTGTTCTTCTCACGGCTTCTGGACGGGAATTATCCAGACACAACCAGCCTGATTCCGCAAGACAGCAAAACAGAAATCATTGTGAACACAAAAGAATTCCTTCAGGCCATTGATCGTGCATCTCTTTTAGCTAGAGAGGGACGCAACAACGTTGTAAAACTGTCCGCAAAACCGGCTGAATCCATTGAAATTTCTTCCAATTCGCCAGAAATCGGTAAAGTTGTGGAAGCAATTGTTGCGGATCAAATTGAAGGTGAGGAATTAAATATCTCTTTTAGTCCAAAATATATGCTGGATGCACTAAAGGTGCTTGAAGGAGCAGAAATACGCGTAAGCTTTACAGGCGCAATGAGACCTTTCTTAATTCGCACGCCGAATGATGAAACGATTGTACAGCTTATCCTTCCTGTCAGAACCTATTAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1021</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="4">
@@ -557,36 +557,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pta_del</t>
+          <t>BSU_00040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTtcatttcagcagctgtgattga</t>
+          <t>ACGTCTCACATATGACTAGTCACCTCAGAAACACGCCCTA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtaaaattgaagacaatggcagctct</t>
+          <t>AGTTCGAACTTAAGAGATCTTCAGTGTCACCCGCTTTAATTG</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>tcatttcagcagctgtgattgataattgcttttcagcatcgtaataaaaatttctttattttttgtattctccatgagaggagaatgaatgtaagacagcttgcgctttaacgagaaattattaatatgcagaattgaaatttcgcggtggatcaaatccttacgcagcacgcttctggatagaaccgaaagtcccatgccgttaatcaccgcttcctttacaccttgattgctgctgatggtaaacattgatttcggccgaagtccatttgaactgagtacatgatcgagatattctctcgtcccggagcctttctctcttgtcacccacgcttcgttctgcaaatcgctgatcgaaatctctttccgcccggcgagcggatgctgatttggagcggcaatgcacatttcatcctccatgaacggttcaatttccagctcattctcgtttgtatgtccttcaatcagcccgatatcagcctgaagcatccgcacacgctcgctgacctcctctgtattgccaatcatgacatctagattcagctctggatacagcttttgcagctgggccaatagcggcggaagaatatactcaccgattgtaaagcttgcagctattttcaattcacccttcacatagtgatgatgcgcatagatttcagccttggcttgttcgtagagaaacaccatttgctttgctctttgatataaaatgtctcctgtcggcgttgtcgtaaagtgttttggcgacctgttcagaagagccgtttgaaattctttctcaagatttttgatatgcagactgacgctgggctgggagatcatcagcttttccgccgcttttgtgaagtttttttcttctaccaccgctataaacgttttcagcacgtcgtaatacaaaaaccccacccctgtcattaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaatttta</t>
+          <t>CACCTCAGAAACACGCCCTATCTTGACAGGTGTAAACTGGAAAGTGGAGCAAAGTGAATTATTATGCACTGCAACGGATAGCCACCGTCTTGCATTAAGAAAGGCGAAACTTGATATTCCAGAAGACAGATCTTATAACGTCGTGATTCCGGGAAAAAGTTTAACTGAACTCAGCAAGATTTTAGATGACAACCAGGAACTTGTAGATATCGTCATCACAGAAACCCAAGTTCTGTTTAAAGCGAAAAACGTCTTGTTCTTCTCACGGCTTCTGGACGGGAATTATCCAGACACAACCAGCCTGATTCCGCAAGACAGCAAAACAGAAATCATTGTGAACACAAAAGAATTCCTTCAGGCCATTGATCGTGCATCTCTTTTAGCTAGAGAGGGACGCAACAACGTTGTAAAACTGTCCGCAAAACCGGCTGAATCCATTGAAATTTCTTCCAATTCGCCAGAAATCGGTAAAGTTGTGGAAGCAATTGTTGCGGATCAAATTGAAGGTGAGGAATTAAATATCTCTTTTAGTCCAAAATATATGCTGGATGCACTAAAGGTGCTTGAAGGAGCAGAAATACGCGTAAGCTTTACAGGCGCAATGAGACCTTTCTTAATTCGCACGCCGAATGATGAAACGATTGTACAGCTTATCCTTCCTGTCAGAACCTATTAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAATGGCAAATCCGATTTCAATTGATACAGAGATGATTACACTCGGACAATTCTTAAAATTAGCCGATGTGATTCAGTCTGGCGGTATGGCGAAGTGGTTTTTAAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>catcaaataaagggccgagactggattggtcaatgactctccatttcggctgcatcagtaaatcaatcggttggtttgccatctatgtaaaaccctttcatgttaggcttattgaacgaaaactattatatcatttcagcagctgtgattgataattgcttttcagcatcgtaataaaaatttctttattttttgtattctccatgagaggagaatgaatgtaagacagcttgcgctttaacgagaaattattaatatgcagaattgaaatttcgcggtggatcaaatccttacgcagcacgcttctggatagaaccgaaagtcccatgccgttaatcaccgcttcctttacaccttgattgctgctgatggtaaacattgatttcggccgaagtccatttgaactgagtacatgatcgagatattctctcgtcccggagcctttctctcttgtcacccacgcttcgttctgcaaatcgctgatcgaaatctctttccgcccggcgagcggatgctgatttggagcggcaatgcacatttcatcctccatgaacggttcaatttccagctcattctcgtttgtatgtccttcaatcagcccgatatcagcctgaagcatccgcacacgctcgctgacctcctctgtattgccaatcatgacatctagattcagctctggatacagcttttgcagctgggccaatagcggcggaagaatatactcaccgattgtaaagcttgcagctattttcaattcacccttcacatagtgatgatgcgcatagatttcagccttggcttgttcgtagagaaacaccatttgctttgctctttgatataaaatgtctcctgtcggcgttgtcgtaaagtgttttggcgacctgttcagaagagccgtttgaaattctttctcaagatttttgatatgcagactgacgctgggctgggagatcatcagcttttccgccgcttttgtgaagtttttttcttctaccaccgctataaacgttttcagcacgtcgtaatacaaaaaccccacccctgtcattaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaatttta</t>
+          <t>CTGAATTTAATCTAAACGGACTGGATGCTGATGAATATCCGCACTTGCCGCAGATTGAAGAGCATCATGCGATTCAGATCCCAACTGATTTGTTAAAAAATCTAATCAGACAAACAGTATTTGCAGTGTCCACCTCAGAAACACGCCCTATCTTGACAGGTGTAAACTGGAAAGTGGAGCAAAGTGAATTATTATGCACTGCAACGGATAGCCACCGTCTTGCATTAAGAAAGGCGAAACTTGATATTCCAGAAGACAGATCTTATAACGTCGTGATTCCGGGAAAAAGTTTAACTGAACTCAGCAAGATTTTAGATGACAACCAGGAACTTGTAGATATCGTCATCACAGAAACCCAAGTTCTGTTTAAAGCGAAAAACGTCTTGTTCTTCTCACGGCTTCTGGACGGGAATTATCCAGACACAACCAGCCTGATTCCGCAAGACAGCAAAACAGAAATCATTGTGAACACAAAAGAATTCCTTCAGGCCATTGATCGTGCATCTCTTTTAGCTAGAGAGGGACGCAACAACGTTGTAAAACTGTCCGCAAAACCGGCTGAATCCATTGAAATTTCTTCCAATTCGCCAGAAATCGGTAAAGTTGTGGAAGCAATTGTTGCGGATCAAATTGAAGGTGAGGAATTAAATATCTCTTTTAGTCCAAAATATATGCTGGATGCACTAAAGGTGCTTGAAGGAGCAGAAATACGCGTAAGCTTTACAGGCGCAATGAGACCTTTCTTAATTCGCACGCCGAATGATGAAACGATTGTACAGCTTATCCTTCCTGTCAGAACCTATTAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAATGGCAAATCCGATTTCAATTGATACAGAGATGATTACACTCGGACAATTCTTAAAATTAGCCGATGTGATTCAGTCTGGCGGTATGGCGAAGTGGTTTTTAAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTtcatttcagcagctgtgattgataattgcttttcagcatcgtaataaaaatttctttattttttgtattctccatgagaggagaatgaatgtaagacagcttgcgctttaacgagaaattattaatatgcagaattgaaatttcgcggtggatcaaatccttacgcagcacgcttctggatagaaccgaaagtcccatgccgttaatcaccgcttcctttacaccttgattgctgctgatggtaaacattgatttcggccgaagtccatttgaactgagtacatgatcgagatattctctcgtcccggagcctttctctcttgtcacccacgcttcgttctgcaaatcgctgatcgaaatctctttccgcccggcgagcggatgctgatttggagcggcaatgcacatttcatcctccatgaacggttcaatttccagctcattctcgtttgtatgtccttcaatcagcccgatatcagcctgaagcatccgcacacgctcgctgacctcctctgtattgccaatcatgacatctagattcagctctggatacagcttttgcagctgggccaatagcggcggaagaatatactcaccgattgtaaagcttgcagctattttcaattcacccttcacatagtgatgatgcgcatagatttcagccttggcttgttcgtagagaaacaccatttgctttgctctttgatataaaatgtctcctgtcggcgttgtcgtaaagtgttttggcgacctgttcagaagagccgtttgaaattctttctcaagatttttgatatgcagactgacgctgggctgggagatcatcagcttttccgccgcttttgtgaagtttttttcttctaccaccgctataaacgttttcagcacgtcgtaatacaaaaaccccacccctgtcattaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaattttaAGATCTCTTAAGTTCGAACT</t>
+          <t>ACGTCTCACATATGACTAGTCACCTCAGAAACACGCCCTATCTTGACAGGTGTAAACTGGAAAGTGGAGCAAAGTGAATTATTATGCACTGCAACGGATAGCCACCGTCTTGCATTAAGAAAGGCGAAACTTGATATTCCAGAAGACAGATCTTATAACGTCGTGATTCCGGGAAAAAGTTTAACTGAACTCAGCAAGATTTTAGATGACAACCAGGAACTTGTAGATATCGTCATCACAGAAACCCAAGTTCTGTTTAAAGCGAAAAACGTCTTGTTCTTCTCACGGCTTCTGGACGGGAATTATCCAGACACAACCAGCCTGATTCCGCAAGACAGCAAAACAGAAATCATTGTGAACACAAAAGAATTCCTTCAGGCCATTGATCGTGCATCTCTTTTAGCTAGAGAGGGACGCAACAACGTTGTAAAACTGTCCGCAAAACCGGCTGAATCCATTGAAATTTCTTCCAATTCGCCAGAAATCGGTAAAGTTGTGGAAGCAATTGTTGCGGATCAAATTGAAGGTGAGGAATTAAATATCTCTTTTAGTCCAAAATATATGCTGGATGCACTAAAGGTGCTTGAAGGAGCAGAAATACGCGTAAGCTTTACAGGCGCAATGAGACCTTTCTTAATTCGCACGCCGAATGATGAAACGATTGTACAGCTTATCCTTCCTGTCAGAACCTATTAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAATGGCAAATCCGATTTCAATTGATACAGAGATGATTACACTCGGACAATTCTTAAAATTAGCCGATGTGATTCAGTCTGGCGGTATGGCGAAGTGGTTTTTAAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGAAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1086</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5">
@@ -595,112 +595,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ldh_del</t>
+          <t>BSU_00050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTcaggctatcactgcggtcaa</t>
+          <t>ACGTCTCACATATGACTAGTTCGCACCGGACATCAAATGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AGTTCGAACTTAAGAGATCTtaatcatccttccagggtatgt</t>
+          <t>AGTTCGAACTTAAGAGATCTTTGCTCACCTCATTTCTTCACT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>caggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgatta</t>
+          <t>TCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGAGAAATGGGCGCAGCCCATCCATGCAGGCATCTCAAGAGGGCTTGAAGAACTGACCCTGAAATACCATACAGCTCTTGATGTATCAGATCCCCTAGATTTGTCGAAAATAGGAGATAGCTATCAAGAAGCGTTTTCTAAATTAAGAGAAAAAGAAATTGAGCGTGGTGTGACGCTGTCAGGGCCTCATCGCGATGATGTTCTTTTCTATGTGAACGGACGCGATGTGCAGACGTATGGTTCTCAAGGACAGCAGCGAACGACGGCGTTGTCCCTTAAGCTGGCGGAGATTGACCTGATCCATGAAGAAATCGGAGAATATCCCATTTTACTATTGGATGATGTACTGAGTGAACTGGATGATTATCGCCAGTCACACTTGCTTCATACGATCCAAGGCCGTGTACAAACGTTTGTCACAACGACAAGCGTTGATGGCATTGATCACGAAACCTTACGTCAAGCAGGAATGTTCCGTGTGCAAAATGGTGCGTTAGTGAAGTGAAGAAATGAGGTGAGCAA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ctgggcggtgatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgatta</t>
+          <t>ACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACCTCATGGAGGCGATCTATGTCTTGTCCATGGCGAAATCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGAGAAATGGGCGCAGCCCATCCATGCAGGCATCTCAAGAGGGCTTGAAGAACTGACCCTGAAATACCATACAGCTCTTGATGTATCAGATCCCCTAGATTTGTCGAAAATAGGAGATAGCTATCAAGAAGCGTTTTCTAAATTAAGAGAAAAAGAAATTGAGCGTGGTGTGACGCTGTCAGGGCCTCATCGCGATGATGTTCTTTTCTATGTGAACGGACGCGATGTGCAGACGTATGGTTCTCAAGGACAGCAGCGAACGACGGCGTTGTCCCTTAAGCTGGCGGAGATTGACCTGATCCATGAAGAAATCGGAGAATATCCCATTTTACTATTGGATGATGTACTGAGTGAACTGGATGATTATCGCCAGTCACACTTGCTTCATACGATCCAAGGCCGTGTACAAACGTTTGTCACAACGACAAGCGTTGATGGCATTGATCACGAAACCTTACGTCAAGCAGGAATGTTCCGTGTGCAAAATGGTGCGTTAGTGAAGTGAAGAAATGAGGTGAGCAA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ACGTCTCACATATGACTAGTcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgattaAGATCTCTTAAGTTCGAACT</t>
+          <t>ACGTCTCACATATGACTAGTTCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGAGAAATGGGCGCAGCCCATCCATGCAGGCATCTCAAGAGGGCTTGAAGAACTGACCCTGAAATACCATACAGCTCTTGATGTATCAGATCCCCTAGATTTGTCGAAAATAGGAGATAGCTATCAAGAAGCGTTTTCTAAATTAAGAGAAAAAGAAATTGAGCGTGGTGTGACGCTGTCAGGGCCTCATCGCGATGATGTTCTTTTCTATGTGAACGGACGCGATGTGCAGACGTATGGTTCTCAAGGACAGCAGCGAACGACGGCGTTGTCCCTTAAGCTGGCGGAGATTGACCTGATCCATGAAGAAATCGGAGAATATCCCATTTTACTATTGGATGATGTACTGAGTGAACTGGATGATTATCGCCAGTCACACTTGCTTCATACGATCCAAGGCCGTGTACAAACGTTTGTCACAACGACAAGCGTTGATGGCATTGATCACGAAACCTTACGTCAAGCAGGAATGTTCCGTGTGCAAAATGGTGCGTTAGTGAAGTGAAGAAATGAGGTGAGCAAAGATCTCTTAAGTTCGAACT</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ACGTCTCACATATGACTAGTgctcacgctctgcaaattcc</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>tataaaaggaggaattcaaattgacaaaagcaacaaaagaaca</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>gctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaa</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>gtaacatgatcatcgactgcattacgcaactctttaacgatttcaagagggtgcgctctgtctgatttccaatctgcaggcacctgctcaccttcatgcatatattgttttaaatcagaaaggattttctgctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaa</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ACGTCTCACATATGACTAGTgctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatttgaattcctccttttata</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ACGTCTCACATATGACTAGTactgccgttattcgctggat</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ccgcgctgtttcccatatgccaccgcccagcctaaacg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>actgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>agtcttcacatcggtttgaaaggaggaagcggaagaatgaagtaagagggatttttgactccgaagtaagtcttcaaaaaatcaaataaggagtgtcaagaatgtttgcaaaacgattcaaaacctctttactgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtg</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ACGTCTCACATATGACTAGTactgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtggcatatgggaaacagcgcgg</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1010</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,40 +694,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bdhA_del</t>
+          <t>BSU_00020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttga</t>
+          <t>TGTCCACATGTGGATAGGCTGTGTTTCCTGTCTTTTTCACAACTTATCCACAAATCCACAGGCCCTACTATTACTTCTACTATTTTTTATAAATATATATATTAATACATTATCCGTTAGGAGGATAAAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGATTAATACATTATCCGTTAGGAGGATAAAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACgaaaccagcagctcatcacc</t>
+          <t>GGGGATCCTCTAGAGTCGACCGAGCTGTGCTGTAAACTGC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttga</t>
+          <t>AGGGTAATGCATGCCTGCAGATTAATACATTATCCGTTAGGAGGATAAAATCCGATACACTGCTGCCGA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGacccgagtgcggattctttttggtttcaaaggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttgaaaaaaagaaactttaaagaaaaaagggtctcgcacactcttttttctttatatgagagtatcaatcgtttacatagctatgaatttggtttgaacaatacggtaatggttcgttcatattgaatgcgacaactactctatcaataattataactctaatactgctattataataggataatcttccatggtttattttagcagaggtaacttttttgactttgtaacattactgtaaggatattgaaataaaaaatagctggttgatcgtgtataatcttcctagatgttaacaaacagggggacgaaatgttgaagaaagtcattttagccgcttttatcttagtaggaagtactttgggagcttttagtttttcatcagatgccagtgcgaaacatgtgaacggaaatattacttggtataatggagtcgggaaaaaaggctcttcaggtaagaaacttggacattgggattgtgcgaccaaaatcggatttgatgttcctagaaacgggacaaaaatcagagcttatgcaaaagcgaagcctaaaaaggtgattacggtttataaaaatgatgttggcagaatgcctaatgcagtgctggatgttagccctaaagcgtttaaagcgcttggatacccattaagcaaaggtaaagtagcggggcattacagctattaatgtacatatataatctggaaagcaagaagtcacattcttgctttttctattggtggagataaaagatgaaaaaaagaatcatattattattagcagtgataatagcggcagctgccgcgggggttgcgttttatgttgcaaaggataaaggccatgagaaggctgctgatgtttcagtcaataccgaaagcggtgatgagctgctggtttcGTCGACTCTAGAGGATCCCC</t>
+          <t>AGGGTAATGCATGCCTGCAGATTAATACATTATCCGTTAGGAGGATAAAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAATGGCAAATCCGATTTCAATTGATACAGAGATGATTACACTCGGACAATTCTTAAAATTAGCCGATGTGATTCAGTCTGGCGGTATGGCGAAGTGGTTTTTAAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGATTGTATATCCAGAACTTAGAACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACCTCATGGAGGCGATCTATGTCTTGTCCATGGCGAAATCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1091</v>
+        <v>1041</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>acccgagtgcggattctttttggtttcaaaggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttgaaaaaaagaaactttaaagaaaaaagggtctcgcacactcttttttctttatatgagagtatcaatcgtttacatagctatgaatttggtttgaacaatacggtaatggttcgttcatattgaatgcgacaactactctatcaataattataactctaatactgctattataataggataatcttccatggtttattttagcagaggtaacttttttgactttgtaacattactgtaaggatattgaaataaaaaatagctggttgatcgtgtataatcttcctagatgttaacaaacagggggacgaaatgttgaagaaagtcattttagccgcttttatcttagtaggaagtactttgggagcttttagtttttcatcagatgccagtgcgaaacatgtgaacggaaatattacttggtataatggagtcgggaaaaaaggctcttcaggtaagaaacttggacattgggattgtgcgaccaaaatcggatttgatgttcctagaaacgggacaaaaatcagagcttatgcaaaagcgaagcctaaaaaggtgattacggtttataaaaatgatgttggcagaatgcctaatgcagtgctggatgttagccctaaagcgtttaaagcgcttggatacccattaagcaaaggtaaagtagcggggcattacagctattaatgtacatatataatctggaaagcaagaagtcacattcttgctttttctattggtggagataaaagatgaaaaaaagaatcatattattattagcagtgataatagcggcagctgccgcgggggttgcgttttatgttgcaaaggataaaggccatgagaaggctgctgatgtttcagtcaataccgaaagcggtgatgagctgctggtttcaattacagatacggatctgctgacaaagt</t>
+          <t>ATTAATACATTATCCGTTAGGAGGATAAAATCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAATGGCAAATCCGATTTCAATTGATACAGAGATGATTACACTCGGACAATTCTTAAAATTAGCCGATGTGATTCAGTCTGGCGGTATGGCGAAGTGGTTTTTAAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGATTGTATATCCAGAACTTAGAACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACCTCATGGAGGCGATCTATGTCTTGTCCATGGCGAAATCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGAGAAATGGGCGCAGCCCATCCATGCAGGCATCTCAAGAGGGCTTGAAGAACTGACCCTGAAATACCATACAGCTCTTGA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ggattaccactcctataacttttgatgtgagtaattccgcaccggtcaatatgaactgttcacaaaatcgccatttttaaaaccaaaaaagaaatgaaatttttatataatataatctacgtttttttgaaaaaaagaaactttaaagaaaaaagggtctcgcacactcttttttctttatatgagagtatcaatcgtttacatagctatgaatttggtttgaacaatacggtaatggttcgttcatattgaatgcgacaactactctatcaataattataactctaatactgctattataataggataatcttccatggtttattttagcagaggtaacttttttgactttgtaacattactgtaaggatattgaaataaaaaatagctggttgatcgtgtataatcttcctagatgttaacaaacagggggacgaaatgttgaagaaagtcattttagccgcttttatcttagtaggaagtactttgggagcttttagtttttcatcagatgccagtgcgaaacatgtgaacggaaatattacttggtataatggagtcgggaaaaaaggctcttcaggtaagaaacttggacattgggattgtgcgaccaaaatcggatttgatgttcctagaaacgggacaaaaatcagagcttatgcaaaagcgaagcctaaaaaggtgattacggtttataaaaatgatgttggcagaatgcctaatgcagtgctggatgttagccctaaagcgtttaaagcgcttggatacccattaagcaaaggtaaagtagcggggcattacagctattaatgtacatatataatctggaaagcaagaagtcacattcttgctttttctattggtggagataaaagatgaaaaaaagaatcatattattattagcagtgataatagcggcagctgccgcgggggttgcgttttatgttgcaaaggataaaggccatgagaaggctgctgatgtttcagtcaataccgaaagcggtgatgagctgctggtttc</t>
+          <t>TCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAATGGCAAATCCGATTTCAATTGATACAGAGATGATTACACTCGGACAATTCTTAAAATTAGCCGATGTGATTCAGTCTGGCGGTATGGCGAAGTGGTTTTTAAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGATTGTATATCCAGAACTTAGAACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACCTCATGGAGGCGATCTATGTCTTGTCCATGGCGAAATCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCG</t>
         </is>
       </c>
     </row>
@@ -813,40 +737,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acoA_del</t>
+          <t>BSU_00030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>agacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcagg</t>
+          <t>TCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGTATTAGTGATATTTGAAAGAGGTCGATATAAGCGGGTGACACTGATTGTATATCCAGAACTTAGAACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACgccaagcaattcaagcgtga</t>
+          <t>GGGGATCCTCTAGAGTCGACCACGGCCTTGGATCGTATGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagca</t>
+          <t>AGGGTAATGCATGCCTGCAGTATTAGTGATATTTGAAAGAGGTCGATATAAGCGGGTGACACTGATTGTA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGgtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcaggatgatgaagcatggggcggtgtattaggggtcacaaagggactcgtacaggaattcgggcgtacaagagtgctggacactccgatttctgaggcaggctatatgggagcggctatggctgcggcatcaaccggtttgagaccgattgccgagctgatgtttaacgattttatcggcacgtgctttgatcaggtgatcaaccaaggggcgaaattccgttatatgttcggcggaaaagcgcaagtgccgattaccgtccgcaccacatacggagcagggttccgggccgctgcccagcattcacaatcgctgtatggccttttcacgagcatccctggactgaagacagttgttccatccaatccgtatgatgccaaaggtcttttgcttgcagcaatagaagataatgatccggtgtttttctttgaagacaaaacgtcctacaacatgaagggcgaggtgccggaagattattatacaattcccctcggaaaagcggatatcaaacgcgaaggcaatgatgttacgctctttgcagtcggcaagcaggtcaatactgcgcttgaagcggctgcacagctttcagagaggggcatcgaagccgaggtccttgatccccgcagtctgtctcctctggatgaggatgcgattttcacatcgttagaaaaaacaaaccggctgatcatcattgatgaagccaatccgcgatgcagcattgccacggatattgctgcgcttgtcgctgacaagggctttgatttgcttgatgcgccgattaaacggattacagcgccgcatacaccggttccgttttcaccagtgcttgaagatcaatatttgccgacaccagataaaattgtcagcgtcacgcttgaattgcttggcGTCGACTCTAGAGGATCCCC</t>
+          <t>AGGGTAATGCATGCCTGCAGTATTAGTGATATTTGAAAGAGGTCGATATAAGCGGGTGACACTGATTGTATATCCAGAACTTAGAACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACCTCATGGAGGCGATCTATGTCTTGTCCATGGCGAAATCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGAGAAATGGGCGCAGCCCATCCATGCAGGCATCTCAAGAGGGCTTGAAGAACTGACCCTGAAATACCATACAGCTCTTGATGTATCAGATCCCCTAGATTTGTCGAAAATAGGAGATAGCTATCAAGAAGCGTTTTCTAAATTAAGAGAAAAAGAAATTGAGCGTGGTGTGACGCTGTCAGGGCCTCATCGCGATGATGTTCTTTTCTATGTGAACGGACGCGATGTGCAGACGTATGGTTCTCAAGGACAGCAGCGAACGACGGCGTTGTCCCTTAAGCTGGCGGAGATTGACCTGATCCATGAAGAAATCGGAGAATATCCCATTTTACTATTGGATGATGTACTGAGTGAACTGGATGATTATCGCCAGTCACACTTGCTTCATACGATCCAAGGCCGTGGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>gtgaaccctaaatagaaggaggcgcacaaagagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcaggatgatgaagcatggggcggtgtattaggggtcacaaagggactcgtacaggaattcgggcgtacaagagtgctggacactccgatttctgaggcaggctatatgggagcggctatggctgcggcatcaaccggtttgagaccgattgccgagctgatgtttaacgattttatcggcacgtgctttgatcaggtgatcaaccaaggggcgaaattccgttatatgttcggcggaaaagcgcaagtgccgattaccgtccgcaccacatacggagcagggttccgggccgctgcccagcattcacaatcgctgtatggccttttcacgagcatccctggactgaagacagttgttccatccaatccgtatgatgccaaaggtcttttgcttgcagcaatagaagataatgatccggtgtttttctttgaagacaaaacgtcctacaacatgaagggcgaggtgccggaagattattatacaattcccctcggaaaagcggatatcaaacgcgaaggcaatgatgttacgctctttgcagtcggcaagcaggtcaatactgcgcttgaagcggctgcacagctttcagagaggggcatcgaagccgaggtccttgatccccgcagtctgtctcctctggatgaggatgcgattttcacatcgttagaaaaaacaaaccggctgatcatcattgatgaagccaatccgcgatgcagcattgccacggatattgctgcgcttgtcgctgacaagggctttgatttgcttgatgcgccgattaaacggattacagcgccgcatacaccggttccgttttcaccagtgcttgaagatcaatatttgccgacaccagataaaattgtcagcgtcacgcttgaattgcttggcgagccggcattgaattaaaggggggacacaaatggc</t>
+          <t>TATTAGTGATATTTGAAAGAGGTCGATATAAGCGGGTGACACTGATTGTATATCCAGAACTTAGAACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACCTCATGGAGGCGATCTATGTCTTGTCCATGGCGAAATCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGAGAAATGGGCGCAGCCCATCCATGCAGGCATCTCAAGAGGGCTTGAAGAACTGACCCTGAAATACCATACAGCTCTTGATGTATCAGATCCCCTAGATTTGTCGAAAATAGGAGATAGCTATCAAGAAGCGTTTTCTAAATTAAGAGAAAAAGAAATTGAGCGTGGTGTGACGCTGTCAGGGCCTCATCGCGATGATGTTCTTTTCTATGTGAACGGACGCGATGTGCAGACGTATGGTTCTCAAGGACAGCAGCGAACGACGGCGTTGTCCCTTAAGCTGGCGGAGATTGACCTGATCCATGAAGAAATCGGAGAATATCCCATTTTACTATTGGATGATGTACTGAGTGAACTGGATGATTATCGCCAGTCACACTTGCTTCATACGATCCAAGGCCGTGTACAAACGTTTGTCACAACGACA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>gagatggcgagagtcataagcatgtcagacgcgatcaatgaagcaatgaagcttgcgatgagaaaagacgaaaatgtgcttttgatcggtgaggatgtcgccgggggagcggcggtcgatcatttgcaggatgatgaagcatggggcggtgtattaggggtcacaaagggactcgtacaggaattcgggcgtacaagagtgctggacactccgatttctgaggcaggctatatgggagcggctatggctgcggcatcaaccggtttgagaccgattgccgagctgatgtttaacgattttatcggcacgtgctttgatcaggtgatcaaccaaggggcgaaattccgttatatgttcggcggaaaagcgcaagtgccgattaccgtccgcaccacatacggagcagggttccgggccgctgcccagcattcacaatcgctgtatggccttttcacgagcatccctggactgaagacagttgttccatccaatccgtatgatgccaaaggtcttttgcttgcagcaatagaagataatgatccggtgtttttctttgaagacaaaacgtcctacaacatgaagggcgaggtgccggaagattattatacaattcccctcggaaaagcggatatcaaacgcgaaggcaatgatgttacgctctttgcagtcggcaagcaggtcaatactgcgcttgaagcggctgcacagctttcagagaggggcatcgaagccgaggtccttgatccccgcagtctgtctcctctggatgaggatgcgattttcacatcgttagaaaaaacaaaccggctgatcatcattgatgaagccaatccgcgatgcagcattgccacggatattgctgcgcttgtcgctgacaagggctttgatttgcttgatgcgccgattaaacggattacagcgccgcatacaccggttccgttttcaccagtgcttgaagatcaatatttgccgacaccagataaaattgtcagcgtcacgcttgaattgcttggc</t>
+          <t>AGCGGGTGACACTGATTGTATATCCAGAACTTAGAACTGACATCTTACCGCAACTACGACCATGCTGAACTTCAATTTGAAAATAAAGTAAATGTGATCATCGGAGAAAACGCCCAGGGGAAGACAAACCTCATGGAGGCGATCTATGTCTTGTCCATGGCGAAATCGCACCGGACATCAAATGACAAAGAACTTATACGGTGGGACAAAGACTATGCTAAAATAGAGGGAAGAGTGATGAAGCAAAACGGGGCGATCCCGATGCAGCTCGTCATCTCCAAAAAGGGTAAAAAGGGCAAGGTCAATCATATTGAACAGCAAAAGCTCAGCCAGTATGTCGGGGCCCTCAACACCATTATGTTCGCGCCGGAAGATTTAAATCTTGTAAAGGGAAGCCCTCAAGTGAGAAGGCGGTTTCTTGACATGGAAATCGGACAGGTTTCTCCCGTCTACCTTCATGATCTTTCTCTTTACCAGAAAATCCTTTCCCAGCGGAATCATTTTTTGAAACAGCTGCAAACAAGAAAACAAACTGACCGGACGATGCTCGATGTTCTGACCGATCAGCTTGTAGAAGTTGCAGCAAAAGTCGTCGTAAAACGCCTGCAGTTTACAGCACAGCTCGAGAAATGGGCGCAGCCCATCCATGCAGGCATCTCAAGAGGGCTTGAAGAACTGACCCTGAAATACCATACAGCTCTTGATGTATCAGATCCCCTAGATTTGTCGAAAATAGGAGATAGCTATCAAGAAGCGTTTTCTAAATTAAGAGAAAAAGAAATTGAGCGTGGTGTGACGCTGTCAGGGCCTCATCGCGATGATGTTCTTTTCTATGTGAACGGACGCGATGTGCAGACGTATGGTTCTCAAGGACAGCAGCGAACGACGGCGTTGTCCCTTAAGCTGGCGGAGATTGACCTGATCCATGAAGAAATCGGAGAATATCCCATTTTACTATTGGATGATGTACTGAGTGAACTGGATGATTATCGCCAGTCACACTTGCTTCATACGATCCAAGGCCGTG</t>
         </is>
       </c>
     </row>
@@ -856,40 +780,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pta_del</t>
+          <t>BSU_00040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>attaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaattttaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaa</t>
+          <t>AAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGCAAGTCGTCAATTAAAGCGGGTGACACTGAAGAAATGAGGTGAGCAATTGTATATTCATTTAGGTGATGACTTTGTGGTTTCAACACGAGATATTGTCGGCATTTTTGACTTTAAAGCCAACATGTCGCCTATTGTTGAAGAATTTCTGAAAAAACAGAA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACcaagcgaaaggtgattgccg</t>
+          <t>GGGGATCCTCTAGAGTCGACCGGCTCTTCATGGACAACCT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttaca</t>
+          <t>AGGGTAATGCATGCCTGCAGCAAGTCGTCAATTAAAGCGGGTGACACTGAAGAAATGAGGTGAGCAATTGT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaagtgactcaatcttcccttataggttcttctattttgatggagttatacggaagggatgttcaaggtttctccacagtagaatcggataaactatggtatagtgaaggcaatcatgaaaagataatgggagtgaagataaatgagtgaacagcaaatgacgaatgaagcggcaaaaacgcttgacggctggtatgcgcttcatgatttccgcacaatggattgggcttcctggaagcttctgtccagtgatgagcgccaatctatcatacatgaattcaccgggttgcttgaaaaatggggcgtagcccaaaaagaaggaaaaggatcgcaaactctttacagcatcgtcggccaaaaagctgattttatgctgatgatccttcgtcctacaatggaagaattaaatcaaattgagcttgaattcaacaaatcaagacttgctgagttcaccattccggcatactcctacgtatcagtggtagagctgagcaactacttggcaagcggtgacggcgatccttatgaaaatccgcatgtgcgcgctcgcctttaccctgaactgccggaatctaaatatgtatgcttctatccaatggataaaagaagatctggcaacgacaactggtatatgctttcaatggaagaacgcagaaacttgatgagaagccacggtttaatcggccgcagctatgcgggcaaagtcaaacagatcatcaccggctctgtcggctttgacgattacgagtggggcgttacattatttagcgatgatgtccttcaattcaagaagctagtgtacgaaatgcgttttgacgaagtcagcgctcgctatggcgaatttggttcattctttgtcggcaatcacctttcgcttgGTCGACTCTAGAGGATCCCC</t>
+          <t>AGGGTAATGCATGCCTGCAGCAAGTCGTCAATTAAAGCGGGTGACACTGAAGAAATGAGGTGAGCAATTGTATATTCATTTAGGTGATGACTTTGTGGTTTCAACACGAGATATTGTCGGCATTTTTGACTTTAAAGCCAACATGTCGCCTATTGTTGAAGAATTTCTGAAAAAACAGAAACACAAGGTGGTGCCTTCCGTAAACGGCACGCCCAAATCTATCGTAGTCACGGTTCAGAATATATATTACTCTCCCTTATCTTCCAGCACATTAAAAAAACGTGCGCAATTTATGTTTGAAATAGATTCTTAGAAATTTTTTATCACGAATATATCGTTTAGAAAAGTGTAGGTGAATGACGTGGCTATGGAACAGCAGCAAAACAGTTATGATGAAAATCAGATACAGGTACTAGAAGGATTGGAAGCTGTTCGTAAAAGACCGGGGATGTATATCGGTTCGACAAACAGCAAAGGCCTTCACCACTTGGTATGGGAAATTGTCGACAATAGTATTGACGAAGCCCTCGCCGGTTATTGTACGGATATCAATATCCAAATCGAAAAAGACAACAGTATCACGGTTGTAGATAATGGCCGCGGTATTCCAGTCGGTATTCATGAAAAAATGGGCCGTCCTGCGGTAGAAGTCATTATGACGGTGCTTCATGCCGGAGGAAAATTTGACGGAAGCGGCTATAAAGTATCCGGAGGATTACACGGTGTAGGTGCGTCGGTCGTAAACGCACTATCAACAGAGCTTGATGTGACGGTTCACCGTGACGGTAAAATTCACCGCCAAACCTATAAACGCGGAGTTCCGGTTACAGACCTTGAAATCATTGGCGAAACGGATCATACAGGAACGACGACACATTTTGTCCCGGACCCTGAAATTTTCTCAGAAACAACCGAGTATGATTACGATCTGCTTGCCAACCGCGTGCGTGAATTAGCCTTTTTAACAAAGGGCGTAAACATCACGATTGAAGATAAACGTGAAGGACAAGAGCGCAAAAATGAATACCATTACGAAGGCGGAATTAAAAGTTATGTAGAGTATTTAAACCGCTCTAAAGAGGTTGTCCATGAAGAGCCGGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1075</v>
+        <v>1119</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ggtcgagagctgccattgtcttcaattttaaataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaagtgactcaatcttcccttataggttcttctattttgatggagttatacggaagggatgttcaaggtttctccacagtagaatcggataaactatggtatagtgaaggcaatcatgaaaagataatgggagtgaagataaatgagtgaacagcaaatgacgaatgaagcggcaaaaacgcttgacggctggtatgcgcttcatgatttccgcacaatggattgggcttcctggaagcttctgtccagtgatgagcgccaatctatcatacatgaattcaccgggttgcttgaaaaatggggcgtagcccaaaaagaaggaaaaggatcgcaaactctttacagcatcgtcggccaaaaagctgattttatgctgatgatccttcgtcctacaatggaagaattaaatcaaattgagcttgaattcaacaaatcaagacttgctgagttcaccattccggcatactcctacgtatcagtggtagagctgagcaactacttggcaagcggtgacggcgatccttatgaaaatccgcatgtgcgcgctcgcctttaccctgaactgccggaatctaaatatgtatgcttctatccaatggataaaagaagatctggcaacgacaactggtatatgctttcaatggaagaacgcagaaacttgatgagaagccacggtttaatcggccgcagctatgcgggcaaagtcaaacagatcatcaccggctctgtcggctttgacgattacgagtggggcgttacattatttagcgatgatgtccttcaattcaagaagctagtgtacgaaatgcgttttgacgaagtcagcgctcgctatggcgaatttggttcattctttgtcggcaatcacctttcgcttgatacacttcctcaattcttatatgtataatatcccctcccgccct</t>
+          <t>CAAGTCGTCAATTAAAGCGGGTGACACTGAAGAAATGAGGTGAGCAATTGTATATTCATTTAGGTGATGACTTTGTGGTTTCAACACGAGATATTGTCGGCATTTTTGACTTTAAAGCCAACATGTCGCCTATTGTTGAAGAATTTCTGAAAAAACAGAAACACAAGGTGGTGCCTTCCGTAAACGGCACGCCCAAATCTATCGTAGTCACGGTTCAGAATATATATTACTCTCCCTTATCTTCCAGCACATTAAAAAAACGTGCGCAATTTATGTTTGAAATAGATTCTTAGAAATTTTTTATCACGAATATATCGTTTAGAAAAGTGTAGGTGAATGACGTGGCTATGGAACAGCAGCAAAACAGTTATGATGAAAATCAGATACAGGTACTAGAAGGATTGGAAGCTGTTCGTAAAAGACCGGGGATGTATATCGGTTCGACAAACAGCAAAGGCCTTCACCACTTGGTATGGGAAATTGTCGACAATAGTATTGACGAAGCCCTCGCCGGTTATTGTACGGATATCAATATCCAAATCGAAAAAGACAACAGTATCACGGTTGTAGATAATGGCCGCGGTATTCCAGTCGGTATTCATGAAAAAATGGGCCGTCCTGCGGTAGAAGTCATTATGACGGTGCTTCATGCCGGAGGAAAATTTGACGGAAGCGGCTATAAAGTATCCGGAGGATTACACGGTGTAGGTGCGTCGGTCGTAAACGCACTATCAACAGAGCTTGATGTGACGGTTCACCGTGACGGTAAAATTCACCGCCAAACCTATAAACGCGGAGTTCCGGTTACAGACCTTGAAATCATTGGCGAAACGGATCATACAGGAACGACGACACATTTTGTCCCGGACCCTGAAATTTTCTCAGAAACAACCGAGTATGATTACGATCTGCTTGCCAACCGCGTGCGTGAATTAGCCTTTTTAACAAAGGGCGTAAACATCACGATTGAAGATAAACGTGAAGGACAAGAGCGCAAAAATGAATACCATTACGAAGGCGGAATTAAAAGTTATGTAGAGTATTTAAACCGCTCTAAAGAGGTTGTCCATGAAGAGCCGA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aataaaacctcctcaaaaagttacaaaaacgctttcttttactagcatactcttcttccaatcaaattcaaacagccaactttcattatagcgctttcataaaaaaatcttatttttctaactaatttaagtgactcaatcttcccttataggttcttctattttgatggagttatacggaagggatgttcaaggtttctccacagtagaatcggataaactatggtatagtgaaggcaatcatgaaaagataatgggagtgaagataaatgagtgaacagcaaatgacgaatgaagcggcaaaaacgcttgacggctggtatgcgcttcatgatttccgcacaatggattgggcttcctggaagcttctgtccagtgatgagcgccaatctatcatacatgaattcaccgggttgcttgaaaaatggggcgtagcccaaaaagaaggaaaaggatcgcaaactctttacagcatcgtcggccaaaaagctgattttatgctgatgatccttcgtcctacaatggaagaattaaatcaaattgagcttgaattcaacaaatcaagacttgctgagttcaccattccggcatactcctacgtatcagtggtagagctgagcaactacttggcaagcggtgacggcgatccttatgaaaatccgcatgtgcgcgctcgcctttaccctgaactgccggaatctaaatatgtatgcttctatccaatggataaaagaagatctggcaacgacaactggtatatgctttcaatggaagaacgcagaaacttgatgagaagccacggtttaatcggccgcagctatgcgggcaaagtcaaacagatcatcaccggctctgtcggctttgacgattacgagtggggcgttacattatttagcgatgatgtccttcaattcaagaagctagtgtacgaaatgcgttttgacgaagtcagcgctcgctatggcgaatttggttcattctttgtcggcaatcacctttcgcttg</t>
+          <t>AGAAATGAGGTGAGCAATTGTATATTCATTTAGGTGATGACTTTGTGGTTTCAACACGAGATATTGTCGGCATTTTTGACTTTAAAGCCAACATGTCGCCTATTGTTGAAGAATTTCTGAAAAAACAGAAACACAAGGTGGTGCCTTCCGTAAACGGCACGCCCAAATCTATCGTAGTCACGGTTCAGAATATATATTACTCTCCCTTATCTTCCAGCACATTAAAAAAACGTGCGCAATTTATGTTTGAAATAGATTCTTAGAAATTTTTTATCACGAATATATCGTTTAGAAAAGTGTAGGTGAATGACGTGGCTATGGAACAGCAGCAAAACAGTTATGATGAAAATCAGATACAGGTACTAGAAGGATTGGAAGCTGTTCGTAAAAGACCGGGGATGTATATCGGTTCGACAAACAGCAAAGGCCTTCACCACTTGGTATGGGAAATTGTCGACAATAGTATTGACGAAGCCCTCGCCGGTTATTGTACGGATATCAATATCCAAATCGAAAAAGACAACAGTATCACGGTTGTAGATAATGGCCGCGGTATTCCAGTCGGTATTCATGAAAAAATGGGCCGTCCTGCGGTAGAAGTCATTATGACGGTGCTTCATGCCGGAGGAAAATTTGACGGAAGCGGCTATAAAGTATCCGGAGGATTACACGGTGTAGGTGCGTCGGTCGTAAACGCACTATCAACAGAGCTTGATGTGACGGTTCACCGTGACGGTAAAATTCACCGCCAAACCTATAAACGCGGAGTTCCGGTTACAGACCTTGAAATCATTGGCGAAACGGATCATACAGGAACGACGACACATTTTGTCCCGGACCCTGAAATTTTCTCAGAAACAACCGAGTATGATTACGATCTGCTTGCCAACCGCGTGCGTGAATTAGCCTTTTTAACAAAGGGCGTAAACATCACGATTGAAGATAAACGTGAAGGACAAGAGCGCAAAAATGAATACCATTACGAAGGCGGAATTAAAAGTTATGTAGAGTATTTAAACCGCTCTAAAGAGGTTGTCCATGAAGAGCCG</t>
         </is>
       </c>
     </row>
@@ -899,126 +823,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ldh_del</t>
+          <t>BSU_00050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgattaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttg</t>
+          <t>TCCAAGGCCGTGTACAAACGTTTGTCACAACGACAAGCGTTGATGGCATTGATCACGAAACCTTACGTCAAGCAGGAATGTTCCGTGTGCAAAATGGTGCGTTAGTGAAGTGAAGAAATGAGGTGAGCAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGGTTAGTGAAGTGAAGAAATGAGGTGAGCAAAAATTTTTTATCACGAATATATCGTTTAGAAAAGTGTAGGTGAATGACGTGGCTATGGAACAGCAGCAAAACAGTTATGATGAAAATCAGATACAGGTACTAGAAGGATTGGAAGCTGTTCGTAAAAGAC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GGGGATCCTCTAGAGTCGACggaaaagcgctttgaaggca</t>
+          <t>GGGGATCCTCTAGAGTCGACCTGTCAGCCCTTCCCTTACG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggc</t>
+          <t>AGGGTAATGCATGCCTGCAGGTTAGTGAAGTGAAGAAATGAGGTGAGCAAAAATTTTTTATCACGAATATATCGT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AGGGTAATGCATGCCTGCAGaaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttgaaaatgaaaggcattcttgcggcatttcttaccctagccgtcagtttcttcgtctccgtttgggcatttcatatgccggttgaaaaagcgatttcttctgttttgttaggaatcgggagcgggctgtggcccattggctacatcgtcctgatggcggtgtggctgtataaaatcgccgtgaaaaccgggaaatttaccattattcggtccagcattgccggcatttcgcctgaccaacgattacagctattattaattggtttttgttttaacgcgtttttagaaggcgcggccggttttggtgttccgattgcgattagtgcggcgctgctcgtcgaacttggttttaaaccgttaaaagcggcggcgctctgcttgattgcaaacgctgcctccggagcctttggggcgattgggattcctgtcatcacaggggcgcagattggtgatttgtctgctcttgagctgtctcggacattaatgtggacactgccgatgatctcatttttaataccattcctgcttgtattcttattagaccgaatgaaaggaatcaaacagacatggcccgctcttctggttgtgagcggtgggtatacagcggttcagacactgacaatggcggtgctcgggccggaattagcaaacattttggcggccttattcagcatgggcgggcttgccctcttcctccgcaaatggcagccgaaagagatttaccgcgaggaaggggccggcgatgctggtgagaaaaaggcataccgtgccgctgacattgcgaaagcgtggtctcctttctacattttaactgcggcgatcaccatctggagccttcctgccttcaaagcgcttttccGTCGACTCTAGAGGATCCCC</t>
+          <t>AGGGTAATGCATGCCTGCAGGTTAGTGAAGTGAAGAAATGAGGTGAGCAAAAATTTTTTATCACGAATATATCGTTTAGAAAAGTGTAGGTGAATGACGTGGCTATGGAACAGCAGCAAAACAGTTATGATGAAAATCAGATACAGGTACTAGAAGGATTGGAAGCTGTTCGTAAAAGACCGGGGATGTATATCGGTTCGACAAACAGCAAAGGCCTTCACCACTTGGTATGGGAAATTGTCGACAATAGTATTGACGAAGCCCTCGCCGGTTATTGTACGGATATCAATATCCAAATCGAAAAAGACAACAGTATCACGGTTGTAGATAATGGCCGCGGTATTCCAGTCGGTATTCATGAAAAAATGGGCCGTCCTGCGGTAGAAGTCATTATGACGGTGCTTCATGCCGGAGGAAAATTTGACGGAAGCGGCTATAAAGTATCCGGAGGATTACACGGTGTAGGTGCGTCGGTCGTAAACGCACTATCAACAGAGCTTGATGTGACGGTTCACCGTGACGGTAAAATTCACCGCCAAACCTATAAACGCGGAGTTCCGGTTACAGACCTTGAAATCATTGGCGAAACGGATCATACAGGAACGACGACACATTTTGTCCCGGACCCTGAAATTTTCTCAGAAACAACCGAGTATGATTACGATCTGCTTGCCAACCGCGTGCGTGAATTAGCCTTTTTAACAAAGGGCGTAAACATCACGATTGAAGATAAACGTGAAGGACAAGAGCGCAAAAATGAATACCATTACGAAGGCGGAATTAAAAGTTATGTAGAGTATTTAAACCGCTCTAAAGAGGTTGTCCATGAAGAGCCGATTTACATTGAAGGCGAAAAGGACGGCATTACGGTTGAAGTGGCTTTGCAATACAATGACAGCTACACAAGCAACATTTACTCGTTTACAAACAACATTAACACGTACGAAGGCGGTACCCATGAAGCTGGCTTCAAAACGGGCCTGACTCGTGTTATCAACGATTACGCCAGAAAAAAAGGGCTTATTAAAGAAAATGATCCAAACCTAAGCGGAGATGACGTAAGGGAAGGGCTGACAGGTCGACTCTAGAGGATCCCC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1056</v>
+        <v>1097</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>aaagagaaacataccctggaaggatgattaccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttgaaaatgaaaggcattcttgcggcatttcttaccctagccgtcagtttcttcgtctccgtttgggcatttcatatgccggttgaaaaagcgatttcttctgttttgttaggaatcgggagcgggctgtggcccattggctacatcgtcctgatggcggtgtggctgtataaaatcgccgtgaaaaccgggaaatttaccattattcggtccagcattgccggcatttcgcctgaccaacgattacagctattattaattggtttttgttttaacgcgtttttagaaggcgcggccggttttggtgttccgattgcgattagtgcggcgctgctcgtcgaacttggttttaaaccgttaaaagcggcggcgctctgcttgattgcaaacgctgcctccggagcctttggggcgattgggattcctgtcatcacaggggcgcagattggtgatttgtctgctcttgagctgtctcggacattaatgtggacactgccgatgatctcatttttaataccattcctgcttgtattcttattagaccgaatgaaaggaatcaaacagacatggcccgctcttctggttgtgagcggtgggtatacagcggttcagacactgacaatggcggtgctcgggccggaattagcaaacattttggcggccttattcagcatgggcgggcttgccctcttcctccgcaaatggcagccgaaagagatttaccgcgaggaaggggccggcgatgctggtgagaaaaaggcataccgtgccgctgacattgcgaaagcgtggtctcctttctacattttaactgcggcgatcaccatctggagccttcctgccttcaaagcgcttttccaagaaggcgggctgttatatcaatcaacgctcctgttcaaaatgccttttctgcatcagcaaat</t>
+          <t>GTTAGTGAAGTGAAGAAATGAGGTGAGCAAAAATTTTTTATCACGAATATATCGTTTAGAAAAGTGTAGGTGAATGACGTGGCTATGGAACAGCAGCAAAACAGTTATGATGAAAATCAGATACAGGTACTAGAAGGATTGGAAGCTGTTCGTAAAAGACCGGGGATGTATATCGGTTCGACAAACAGCAAAGGCCTTCACCACTTGGTATGGGAAATTGTCGACAATAGTATTGACGAAGCCCTCGCCGGTTATTGTACGGATATCAATATCCAAATCGAAAAAGACAACAGTATCACGGTTGTAGATAATGGCCGCGGTATTCCAGTCGGTATTCATGAAAAAATGGGCCGTCCTGCGGTAGAAGTCATTATGACGGTGCTTCATGCCGGAGGAAAATTTGACGGAAGCGGCTATAAAGTATCCGGAGGATTACACGGTGTAGGTGCGTCGGTCGTAAACGCACTATCAACAGAGCTTGATGTGACGGTTCACCGTGACGGTAAAATTCACCGCCAAACCTATAAACGCGGAGTTCCGGTTACAGACCTTGAAATCATTGGCGAAACGGATCATACAGGAACGACGACACATTTTGTCCCGGACCCTGAAATTTTCTCAGAAACAACCGAGTATGATTACGATCTGCTTGCCAACCGCGTGCGTGAATTAGCCTTTTTAACAAAGGGCGTAAACATCACGATTGAAGATAAACGTGAAGGACAAGAGCGCAAAAATGAATACCATTACGAAGGCGGAATTAAAAGTTATGTAGAGTATTTAAACCGCTCTAAAGAGGTTGTCCATGAAGAGCCGATTTACATTGAAGGCGAAAAGGACGGCATTACGGTTGAAGTGGCTTTGCAATACAATGACAGCTACACAAGCAACATTTACTCGTTTACAAACAACATTAACACGTACGAAGGCGGTACCCATGAAGCTGGCTTCAAAACGGGCCTGACTCGTGTTATCAACGATTACGCCAGAAAAAAAGGGCTTATTAAAGAAAATGATCCAAACCTAAGCGGAGATGACGTAAGGGAAGGGCTGACAGCGATTATTTCAATCAAACACCCT</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ccgcaactttagagtaaagggctgattgtcaatgtgggagcagttgtatgatccgtttggaaacgagtatgtgagcgcacttgtggcgctcactccgattctcttttttcttttggctttaactgttttgaaaatgaaaggcattcttgcggcatttcttaccctagccgtcagtttcttcgtctccgtttgggcatttcatatgccggttgaaaaagcgatttcttctgttttgttaggaatcgggagcgggctgtggcccattggctacatcgtcctgatggcggtgtggctgtataaaatcgccgtgaaaaccgggaaatttaccattattcggtccagcattgccggcatttcgcctgaccaacgattacagctattattaattggtttttgttttaacgcgtttttagaaggcgcggccggttttggtgttccgattgcgattagtgcggcgctgctcgtcgaacttggttttaaaccgttaaaagcggcggcgctctgcttgattgcaaacgctgcctccggagcctttggggcgattgggattcctgtcatcacaggggcgcagattggtgatttgtctgctcttgagctgtctcggacattaatgtggacactgccgatgatctcatttttaataccattcctgcttgtattcttattagaccgaatgaaaggaatcaaacagacatggcccgctcttctggttgtgagcggtgggtatacagcggttcagacactgacaatggcggtgctcgggccggaattagcaaacattttggcggccttattcagcatgggcgggcttgccctcttcctccgcaaatggcagccgaaagagatttaccgcgaggaaggggccggcgatgctggtgagaaaaaggcataccgtgccgctgacattgcgaaagcgtggtctcctttctacattttaactgcggcgatcaccatctggagccttcctgccttcaaagcgcttttcc</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatttgaattcctccttttataatggtaccgctatcactttatattttacataatcgcgcgctttttttcacgcccatttctaaaaatgtaaaataaatgtaagaattttcagccattacagctttggcaaaaaaataagtaaaccaatgatacacgaaatcacggtaaaaacgcaaacagccccggcggcagcgtccttggccgctttagcaagagggtgatgtttgtcagttattaaatcaaccgtatgttcaatggctgtatttaaaagttcaagcgaaaacataccacctatcaaaaggaatataatcatccactcaataatgctgagctctacaaggaagccgcaaatgagaacagcgcaggcggctgcggcatgaaattggaaattccgctccgtccgcgctgtttcccatatgcAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaata</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GGGGATCCTCTAGAGTCGACtgttcatgtacctgcatcactct</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>AGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactct</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>AGGGTAATGCATGCCTGCAGtccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaacaGTCGACTCTAGAGGATCCCC</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1089</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>tccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaacaatacttgcaatctcttttttcttttgggatt</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>tgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaaca</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtggcatatgggaaacagcgcggacggagcggaatttccaatttcatgccgcagccgcctgcgctgttctcatttgcggcttccttgtagagctcagcattattgagtggatgattatattccttttgataggtggtatgttttcgcttgaacttttaaatacagccattgaacatacggttgatttaataactgacaaacatcaccctcttgctaaagcggccaaggacgctgccgccggggctgtttgcgtttttaccgtgatttcgtgtatcattggtttacttatttttttgccaaagctgtaatggctgaaaattcttacatttattttacatttttagaaatgggcgtgaaaaaaagcgcgcgattatgtaaaatataaagtgatagcggtaccattataaaaggaggaattcaaaATGAAAAAAGTCGCACTTGTTACCGGCTCAGGCCAGGGGATTGGTAAAGCGATTGCGCTGCGCCTGGTGAAAGATGGTTTTGCCGTCGCTATCGCCGACTACAACGATGAGACGGCGAGAGCCGTCGCCGATGAAATCATCCGTAACGGCGGCAACGCCGTCGCCGTGAAGGTGGATGTCTCTGATCGCGACCAGGTGTTTGCGGCGGTGGAGAAAGCCCGCACCGCGCTGGGCGGTTTCAACGTGATTGTGAATAACGCCGGGATTGCGCCATCTACGCCCATCGAATCCATCACGCCGGAGATTGTCGACAAGGTCTACAACATCAACGTGAAAGGGGTGATCTGGGGTATGCAGGCCGCGATTGACGCGTTTCGCAAAGAGGGGCACGGCGGCAAAATCATCAACGCCTGCTCCCAGGCGGGCCACACCGGTAACCCGGAACTGGCGGTGTACAGCTCAAGTAAATTCGCAGTGCGCGGCTTAACCCAGACCGCCGCTCGGGACCTCGCGCCGCTGGGGATCACCGTTAACGCCTACTGCCCGGGTATCGTGAAAACGCCGATGTGGGCGGAGATTGACCGTCAGGTGTCCGAGGCGGCAGGTAAACCGCTTGGTTATGGCACCGAAACCTTTGCCAAACGCATTACGCTTGGCCGCCTGTCCGAACCGGAAGATGTCGCTGCCTGTGTTTCATACCTCGCCGGGCCAGACTCTGACTACATGACTGGTCAGTCGCTCTTGATtGACGGCGGGATGGTaTTTAACTAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatca</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GGGGATCCTCTAGAGTCGACcaatggggaagagaaccgct</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagt</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AGGGTAATGCATGCCTGCAGTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgGTCGACTCTAGAGGATCCCC</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1050</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatgatggtttcttttttgttcataaatcaga</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>atagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattg</t>
+          <t>AAATTTTTTATCACGAATATATCGTTTAGAAAAGTGTAGGTGAATGACGTGGCTATGGAACAGCAGCAAAACAGTTATGATGAAAATCAGATACAGGTACTAGAAGGATTGGAAGCTGTTCGTAAAAGACCGGGGATGTATATCGGTTCGACAAACAGCAAAGGCCTTCACCACTTGGTATGGGAAATTGTCGACAATAGTATTGACGAAGCCCTCGCCGGTTATTGTACGGATATCAATATCCAAATCGAAAAAGACAACAGTATCACGGTTGTAGATAATGGCCGCGGTATTCCAGTCGGTATTCATGAAAAAATGGGCCGTCCTGCGGTAGAAGTCATTATGACGGTGCTTCATGCCGGAGGAAAATTTGACGGAAGCGGCTATAAAGTATCCGGAGGATTACACGGTGTAGGTGCGTCGGTCGTAAACGCACTATCAACAGAGCTTGATGTGACGGTTCACCGTGACGGTAAAATTCACCGCCAAACCTATAAACGCGGAGTTCCGGTTACAGACCTTGAAATCATTGGCGAAACGGATCATACAGGAACGACGACACATTTTGTCCCGGACCCTGAAATTTTCTCAGAAACAACCGAGTATGATTACGATCTGCTTGCCAACCGCGTGCGTGAATTAGCCTTTTTAACAAAGGGCGTAAACATCACGATTGAAGATAAACGTGAAGGACAAGAGCGCAAAAATGAATACCATTACGAAGGCGGAATTAAAAGTTATGTAGAGTATTTAAACCGCTCTAAAGAGGTTGTCCATGAAGAGCCGATTTACATTGAAGGCGAAAAGGACGGCATTACGGTTGAAGTGGCTTTGCAATACAATGACAGCTACACAAGCAACATTTACTCGTTTACAAACAACATTAACACGTACGAAGGCGGTACCCATGAAGCTGGCTTCAAAACGGGCCTGACTCGTGTTATCAACGATTACGCCAGAAAAAAAGGGCTTATTAAAGAAAATGATCCAAACCTAAGCGGAGATGACGTAAGGGAAGGGCTGACAG</t>
         </is>
       </c>
     </row>
@@ -1033,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,7 +937,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bdhA_del</t>
+          <t>BSU_00020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1114,22 +952,22 @@
         <v>-49.74126120999543</v>
       </c>
       <c r="F2" t="n">
-        <v>3.044173040391058</v>
+        <v>-14.12086405383178</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>cgcttgagcagctggaggaa</t>
+          <t>TGTCCACATGTGGATAGGCTG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>62.79315961081556</v>
+        <v>59.78976583781792</v>
       </c>
       <c r="I2" t="n">
-        <v>14.09897054034724</v>
+        <v>37.02196579766178</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>cgcttgagcagctggaggaaaacttccgcgcttatgatcacagcggggcaaagaaggattctggggctgaagtgattggataatttaaaaaagaatccgcacccgagtgcggattctttttggtttcaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
+          <t>TGTCCACATGTGGATAGGCTGTGTTTCCTGTCTTTTTCACAACTTATCCACAAATCCACAGGCCCTACTATTACTTCTACTATTTTTTATAAATATATATATTAATACATTATCCGTTAGGAGGATAAAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -1142,7 +980,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acoA_del</t>
+          <t>BSU_00030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1157,22 +995,22 @@
         <v>-49.74126120999543</v>
       </c>
       <c r="F3" t="n">
-        <v>3.89955117062027</v>
+        <v>-39.16982427772399</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>agacaaaacgagacacacgtct</t>
+          <t>TCCGATACACTGCTGCCGA</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>60.15928215554493</v>
+        <v>61.04976691940641</v>
       </c>
       <c r="I3" t="n">
-        <v>-31.79143154055427</v>
+        <v>-8.816193229301973</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>agacaaaacgagacacacgtctcaaactgtctccaaagtgaagatgagaagactgattttacgggctcaaaagactggcacacttcttgcatttataatggtgaaccctaaatagaaggaggcgcacaaaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
+          <t>TCCGATACACTGCTGCCGACCCGTCGGCAGCTTTTCTATTCGGTATCTGCTCCGACAAGTTTTCCCTTTCCCTAATTCGTTTTTTTTTAGTACAATTAGATATTAGTGATATTTGAAAGAGGTCGATATAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -1185,7 +1023,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pta_del</t>
+          <t>BSU_00040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1200,22 +1038,22 @@
         <v>-49.74126120999543</v>
       </c>
       <c r="F4" t="n">
-        <v>-78.09126937481582</v>
+        <v>-7.295780610813381</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>attaatgaaatatatggttatga</t>
+          <t>AAGCGAGCATGAAGTGCTTG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>47.00319085875395</v>
+        <v>59.47959622645584</v>
       </c>
       <c r="I4" t="n">
-        <v>-28.70815482007731</v>
+        <v>7.971946669965405</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>attaatgaaatatatggttatgattagttttctttattgtactcatatcatccgtcttggtaaagaagggctatacagaagcgcaaaaaaggcagccctcggtcgagagctgccattgtcttcaattttaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
+          <t>AAGCGAGCATGAAGTGCTTGTGAACGATGAGCCGGACAACCGCCGGGGCAGAAAGCTGTATGTTGGAGATGTGGTAGAGATTGAAGGATTTGGTTCATTTCAAGTCGTCAATTAAAGCGGGTGACACTGAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -1228,7 +1066,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ldh_del</t>
+          <t>BSU_00050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1243,112 +1081,26 @@
         <v>-49.74126120999543</v>
       </c>
       <c r="F5" t="n">
-        <v>-27.91370360305305</v>
+        <v>7.190683860243439</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ttcttttttgttcataaatcagaca</t>
+          <t>TCCAAGGCCGTGTACAAACG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>54.16348327524099</v>
+        <v>60.88115877359468</v>
       </c>
       <c r="I5" t="n">
-        <v>-62.2057238989978</v>
+        <v>14.12644482073773</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ttcttttttgttcataaatcagacaaaacttttctcttgcaaaagtttgtgaagtgttgcacaatataaatgtgaaatacttcacaaacaaaaagacatcaaagagaaacataccctggaaggatgattaAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
+          <t>TCCAAGGCCGTGTACAAACGTTTGTCACAACGACAAGCGTTGATGGCATTGATCACGAAACCTTACGTCAAGCAGGAATGTTCCGTGTGCAAAATGGTGCGTTAGTGAAGTGAAGAAATGAGGTGAGCAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>1228</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AGCTACACGCTGTCTTGCTTC</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>55.18892087515667</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-49.74126120999543</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-38.76207611700036</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ataccgcatcaatttttgcacct</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>59.80460402578268</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.767242169250039</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatttgaattcctccttttataatggtaccgctatcactttatattttacataatcgcgcgctttttttcacgcccatttctaaaaatgtaaaataaatgtaagaattttcagccattacagctttggcaaaaaaataagtaaaccaatgatacacgaaatcacggtaaaaacgcaaacagccccggcggcagcgtccttggccgctttagcaagagggtgatgtttgtcagttattaaatcaaccgtatgttcaatggctgtatttaaaagttcaagcgaaaacataccacctatcaaaaggaatataatcatccactcaataatgctgagctctacaaggaagccgcaaatgagaacagcgcaggcggctgcggcatgaaattggaaattccgctccgtccgcgctgtttcccatatgcAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AGCTACACGCTGTCTTGCTTC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>55.18892087515667</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-49.74126120999543</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3.235413299984941</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ctcccactatgcatctgatgtgt</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>60.18145735845644</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.84249622839826</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtggcatatgggaaacagcgcggacggagcggaatttccaatttcatgccgcagccgcctgcgctgttctcatttgcggcttccttgtagagctcagcattattgagtggatgattatattccttttgataggtggtatgttttcgcttgaacttttaaatacagccattgaacatacggttgatttaataactgacaaacatcaccctcttgctaaagcggccaaggacgctgccgccggggctgtttgcgtttttaccgtgatttcgtgtatcattggtttacttatttttttgccaaagctgtaatggctgaaaattcttacatttattttacatttttagaaatgggcgtgaaaaaaagcgcgcgattatgtaaaatataaagtgatagcggtaccattataaaaggaggaattcaaaATGAAAAAAGTCGCACTTGTTACCGGCTCAGGCCAGGGGATTGGTAAAGCGATTGCGCTGCGCCTGGTGAAAGATGGTTTTGCCGTCGCTATCGCCGACTACAACGATGAGACGGCGAGAGCCGTCGCCGATGAAATCATCCGTAACGGCGGCAACGCCGTCGCCGTGAAGGTGGATGTCTCTGATCGCGACCAGGTGTTTGCGGCGGTGGAGAAAGCCCGCACCGCGCTGGGCGGTTTCAACGTGATTGTGAATAACGCCGGGATTGCGCCATCTACGCCCATCGAATCCATCACGCCGGAGATTGTCGACAAGGTCTACAACATCAACGTGAAAGGGGTGATCTGGGGTATGCAGGCCGCGATTGACGCGTTTCGCAAAGAGGGGCACGGCGGCAAAATCATCAACGCCTGCTCCCAGGCGGGCCACACCGGTAACCCGGAACTGGCGGTGTACAGCTCAAGTAAATTCGCAGTGCGCGGCTTAACCCAGACCGCCGCTCGGGACCTCGCGCCGCTGGGGATCACCGTTAACGCCTACTGCCCGGGTATCGTGAAAACGCCGATGTGGGCGGAGATTGACCGTCAGGTGTCCGAGGCGGCAGGTAAACCGCTTGGTTATGGCACCGAAACCTTTGCCAAACGCATTACGCTTGGCCGCCTGTCCGAACCGGAAGATGTCGCTGCCTGTGTTTCATACCTCGCCGGGCCAGACTCTGACTACATGACTGGTCAGTCGCTCTTGATtGACGGCGGGATGGTaTTTAACTAAAGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCT</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>2418</v>
       </c>
     </row>
   </sheetData>
@@ -1362,153 +1114,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PRODUCT_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PAIR_TM_HETERODIMER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_0_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_0_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_0_TM</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_0_TM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PRODUCT_SIZE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>tgatcatcgactgcattacgcaactctttaacgatttcaagagggtgcgctctgtctgatttccaatctgcaggcacctgctcaccttcatgcatatattgttttaaatcagaaaggattttctgctcacgctctgcaaattccactttcacagcatcgtgttcgatatgattgatcgtggacggaatgtcaccgatcaattcaagatcaggctggtaagcatgatcaatgtcagcgataatctcgtctaaatggataattgtccggtctccattgatattccagaatttcggatcatattcaatcgggtcatagccgatcgtcagaacaacatctgcctgctctagcagtaaatcgccaggctggttgcggaacaaaccgatacggccaaaatattgatcctctaaatctctagaaagggtaccggcagcttgatatgtttcaacaaatggaagctgaacctttttcaaaagcttgcgaaccgctttaattgcttccggtcttccgcctttcatgccgaccaaaacgacaggaagttttgctgtttggatttttgctatggccgcactgattgcatcatctgctgcaggaccgagttttggcgctgcaacagcacgcacgtttttcgtatttgtgacttcattcacaacatcttgcggaaagctcacaaaagcggccccagcctgccctgctgacgctatcctaaatgcatttgtaacagcttccggtatattttttacatcttgaacttctacactgtattttgtaatcggctggaatagcgccgcattatccaaagattgatgtgtccgttttaaacgatctgcacggatcacgtttccagcaagcgcaacgacagggtctccttcagtgttcgctgtcagcaggcctgttgccaagttagaggcacccggtcctgatgtgactaacacgactcccggttttccagttaaacggccgactgcttgggccatgaatgctgcgttttgttcgtgccgggcaacgataatttcaggtcctttatcttgtaaagcgtcaaataccgcatcaatttttgcacctggaatgccaaatacatgtgtgacaccttgctccactaagcaatcaacaacaagctccgcccctctgtttttcacaagggatttttgttcttttgttgcttttgtcaatccgctccgtccgcgctgtttcccatatgctgataagtttcactatacactctttggaaattgacctccaatatcgattcgccttatgattaatatgtaatacgaattattaacctatggaaaggaatgcatattgaatggagcttcgccatcttcaatactttatcgcagtagccgaagagcttcatttcggaaaggctgcccggcggctgaacatgacgcagcctcctctcagccagcagatcaaacagctggaggaagaagtcggagttacgcttctgaaaaggacaaaacgatttgtcgagcttaccgcagcaggagaaatctttttaaatcattgccgcatggcattgatgcaaatcggacaaggaattgaactggcacagcggacggcccgcggcgagcaaggccttctcgtaatcggttttgtcggatcagctacatatgaatttctgccgccgattgtccgggaatatcgtaaaaaattcccatctgtgaaaatagaactgcgtgaaatatcctcgtctaggcagcaggaggagctactaaagggcaacattgatattggtatacttcatcctcccttacagcatacagctttacatatcgaaaccgcccaaagcagcccttgtgttttagctttgcctaagcaacacccattgacttctaaggaatcaattacgattgaggatttaagagatgaaccaattattactgttgctaaagaagcatggcctactctatacatggattttattcagttctgtgaacaagcgggcttcagacccaacattgtccaggaagccacagaatatcaaatggtgattggtttagtcagtgccggaattggtatgacatttgttccttcctcggccaaaaaattatttaatttggatgttacttatcgaaaaatggaccaaatacagcttaatgcagaatgggttatcgcttaccgcaaagacaatcataatccgcttataaagcattttattcatatttcaaattgtcagcagacaagaactaaagagagtgatgcaggtacatgaaca</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>-22.75753292142625</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-4.239900307362177</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-37.58585084467148</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>tgatcatcgactgcattacgc</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>tgttcatgtacctgcatcac</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>58.87274901869984</v>
-      </c>
-      <c r="J2" t="n">
-        <v>55.75653746714511</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cggtttgaaaggaggaagcggaagaatgaagtaagagggatttttgactccgaagtaagtcttcaaaaaatcaaataaggagtgtcaagaatgtttgcaaaacgattcaaaacctctttactgccgttattcgctggatttttattgctgtttcatttggttctggcaggaccggcggctgcgagtgctgaaacggcgaacaaatcgaatgagcttacagcaccgtcgatcaaaagcggaaccattcttcatgcatggaattggtcgttcaatacgttaaaacacaatatgaaggatattcatgatgcaggatatacagccattcagacatctccgattaaccaagtaaaggaagggaatcaaggagataaaagcatgtcgaactggtactggctgtatcagccgacatcgtatcaaattggcaaccgttacttaggtactgaacaagaatttaaagaaatgtgtgcagccgctgaagaatatggcataaaggtcattgttgacgcggtcatcaatcataccaccagtgattatgccgcgatttccaatgaggttaagagtattccaaactggacacatggaaacacacaaattaaaaactggtctgatcgatgggatgtcacgcagaattcattgctcgggctgtatgactggaatacacaaaatacacaagtacagtcctatctgaaacggttcttagacagggcattgaatgacggggcagacggttttcgatttgatgccgccaaacatatagagcttccagatgatggcagttacggcagtcaattttggccgaatatcacaaatacatctgcagagttccaatacggagaaatcctgcaggatagtgcctccagagatgctgcatatgcgaattatatggatgtgacagcgtctaactatgggcattccataaggtccgctttaaagaatcgtaatctgggcgtgtcgaatatctcccactatgcatctgatgtgtctgcggacaagctagtgacatgggtagagtcgcatgatacgtatgccaatgatgatgaagagtcgacatggatgagcgatgatgatatccgtttaggctgggcggtgTTGATtGACGGCGGGATGGTaTTTAACTAAatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagacggcgtttaaggatggagatcaattcacaatcggaaaaggagatccatttggcaaaacatacaccatcatgttaaaaggaacgaacagtgatggtgtaacgaggaccgagaaatacagttttgttaaaagagatccagcgtcggccaaaaccatcggctatcaaaatccgaatcattggagccaggtaaatgcttatatctataaacatgatgggagccgagtaattgaattgaccggatcttggcctggaaaaccaatgactaaaaatgcagacggaatttacacgctgacgctgcctgcggacacggatacaaccaacgcaaaagtgatttttaataatggcagcgcccaagtgcccggtcagaatcagcctggctttgattacgtgctaaatggtttatataatgactcgggcttaagcggttctcttccccattgagggcaaggctagacgggacttaccgaaagaaaccatcaatga</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>-38.56392281382165</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-13.78795529085073</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-8.957805992128613</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>cggtttgaaaggaggaagcg</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>tcattgatggtttctttcggt</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>59.48268404380332</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55.78397080613092</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2142</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1519,153 +1132,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_WHOLE_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_WHOLE_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_TM</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_TM</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRODUCT_SEQUENCE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PRODUCT_SIZE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_LEFT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_RIGHT_TM_HOMODIMER</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PRIMER_PAIR_TM_HETERODIMER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>tttgaattcctccttttataatggt</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AGTTCGAACTTAAGAGATCTgcatatgggaaacagcgcg</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>48.92481147940509</v>
-      </c>
-      <c r="F2" t="n">
-        <v>65.45917306940544</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>tttgaattcctccttttataatggtaccgctatcactttatattttacataatcgcgcgctttttttcacgcccatttctaaaaatgtaaaataaatgtaagaattttcagccattacagctttggcaaaaaaataagtaaaccaatgatacacgaaatcacggtaaaaacgcaaacagccccggcggcagcgtccttggccgctttagcaagagggtgatgtttgtcagttattaaatcaaccgtatgttcaatggctgtatttaaaagttcaagcgaaaacataccacctatcaaaaggaatataatcatccactcaataatgctgagctctacaaggaagccgcaaatgagaacagcgcaggcggctgcggcatgaaattggaaattccgctccgtccgcgctgtttcccatatgcAGATCTCTTAAGTTCGAACT</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>439</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.7530028647180981</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.05883744887257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-23.82331753058514</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>gcatatgggaaacagcgcg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AGTTCGAACTTAAGAGATCTTTAGTTAAAtACCATCCCGCCGT</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>54.42729585582515</v>
-      </c>
-      <c r="F3" t="n">
-        <v>63.86329705448878</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>gcatatgggaaacagcgcggacggagcggaatttccaatttcatgccgcagccgcctgcgctgttctcatttgcggcttccttgtagagctcagcattattgagtggatgattatattccttttgataggtggtatgttttcgcttgaacttttaaatacagccattgaacatacggttgatttaataactgacaaacatcaccctcttgctaaagcggccaaggacgctgccgccggggctgtttgcgtttttaccgtgatttcgtgtatcattggtttacttatttttttgccaaagctgtaatggctgaaaattcttacatttattttacatttttagaaatgggcgtgaaaaaaagcgcgcgattatgtaaaatataaagtgatagcggtaccattataaaaggaggaattcaaaATGAAAAAAGTCGCACTTGTTACCGGCTCAGGCCAGGGGATTGGTAAAGCGATTGCGCTGCGCCTGGTGAAAGATGGTTTTGCCGTCGCTATCGCCGACTACAACGATGAGACGGCGAGAGCCGTCGCCGATGAAATCATCCGTAACGGCGGCAACGCCGTCGCCGTGAAGGTGGATGTCTCTGATCGCGACCAGGTGTTTGCGGCGGTGGAGAAAGCCCGCACCGCGCTGGGCGGTTTCAACGTGATTGTGAATAACGCCGGGATTGCGCCATCTACGCCCATCGAATCCATCACGCCGGAGATTGTCGACAAGGTCTACAACATCAACGTGAAAGGGGTGATCTGGGGTATGCAGGCCGCGATTGACGCGTTTCGCAAAGAGGGGCACGGCGGCAAAATCATCAACGCCTGCTCCCAGGCGGGCCACACCGGTAACCCGGAACTGGCGGTGTACAGCTCAAGTAAATTCGCAGTGCGCGGCTTAACCCAGACCGCCGCTCGGGACCTCGCGCCGCTGGGGATCACCGTTAACGCCTACTGCCCGGGTATCGTGAAAACGCCGATGTGGGCGGAGATTGACCGTCAGGTGTCCGAGGCGGCAGGTAAACCGCTTGGTTATGGCACCGAAACCTTTGCCAAACGCATTACGCTTGGCCGCCTGTCCGAACCGGAAGATGTCGCTGCCTGTGTTTCATACCTCGCCGGGCCAGACTCTGACTACATGACTGGTCAGTCGCTCTTGATtGACGGCGGGATGGTaTTTAACTAAAGATCTCTTAAGTTCGAACT</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1210</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-3.358905637639964</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20.05883744887257</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-20.67994124590209</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1676,7 +1150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,7 +1216,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bdhA_del</t>
+          <t>BSU_00020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1785,7 +1259,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acoA_del</t>
+          <t>BSU_00030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1828,7 +1302,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pta_del</t>
+          <t>BSU_00040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1871,7 +1345,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ldh_del</t>
+          <t>BSU_00050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1905,92 +1379,6 @@
         <v>60.75421688518662</v>
       </c>
       <c r="K5" t="n">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>alsSD_P43_sub</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>25.1418733490458</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22.67095541698984</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-49.30664285464223</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CTGCAGGCATGCATTACCCT</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>60.44808904346149</v>
-      </c>
-      <c r="J6" t="n">
-        <v>60.75421688518662</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>amyE::P43_budC_ins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AGATCTCTTAAGTTCGAACTCGAGCCATGGAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCATATCCTTCTTGCATTGAAAAACCACGAAGATGAAGGAAAACTTGAAGAAGCAAGACAGCGTGTAGCTGCTCTGACTGATAAATTTCCTTTATATAAAGAATTAGATTATTAAGATCCTAAAACCCGCTTGGGCTTATGCCCGGCGGGTTTTTTGACGATGTTCTTGAAACTCAATGTCTTTTTTTGTAGAATCAATAGAAGTGTGTAATTGTTGATGGGACAATAAAAAAGGAGCTGAAACACAGTATGGGAAAGGTTTATGTATTTGATCATCCTTTAATTCAGCACAAGCTGACATATATACGGAATGAAAATACAGGTACGAAGGATTTTAGAGAGTTAGTAGATGAAGTGGCTACACTCATGGCATTTGAAATTACCCGCGATCTTCCTCTGGAAGAAGTGGATATCAATACACCGGTTCAGGCTGCGAAATCGAAAGTCATCTCAGGGAAAAAACTCGGAGTGGTTCCTATCCTCAGAGCAGGATTGGGAATGGTTGACGGCATTTTAAAGCTGATTCCTGCGGCAAAAGTGGGACATGTCGGCCTTTACCGTGATCCAGAAACCTTAAAACCCGTGGAATACTATGTCAAGCTTCCTTCTGATGTGGAAGAGCGTGAATTCATCGTGGTTGACCCGATGCTCGCTACAGGCGGTTCCGCAGTTGAAGCCATTCACAGCCTTAAAAAACGCGGTGCGAAAAATATCCGTTTCATGTGTCTTGTAGCAGCGCCGGAGGGTGTGGAAGAATTGCAGAAGCATCATTCGGACGTTGATATTTACATTGCGGCGCTAGATGAAAAATTAAATGAAAAAGGATATATTGTTCCAGGTCTCGGAGATGCGGGTGACCGCATGTTTGGAACAAAATAAAAAATGAAATCCCCAAAAGGGGGTTTCATTTTTTTATCCAGTTTTTTGCTATTCGGTGAATCTGTATACAATTATAGGTGAAAATGTGAACATTCTGTGGAGACGTAAAGTTAGGGATAACAGGGTAATGCATGCCTGCAG</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>25.1418733490458</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22.67095541698984</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-49.30664285464223</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AGATCTCTTAAGTTCGAACTCGAGC</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CTGCAGGCATGCATTACCCT</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60.44808904346149</v>
-      </c>
-      <c r="J7" t="n">
-        <v>60.75421688518662</v>
-      </c>
-      <c r="K7" t="n">
         <v>2048</v>
       </c>
     </row>
